--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB50526-40AE-48D1-A212-E6067FB7FB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBD47FC-665E-4B95-BD36-E1FF55CFDD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="390" windowWidth="20310" windowHeight="14910" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="8100" yWindow="510" windowWidth="20310" windowHeight="14910" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Medtronic</t>
   </si>
@@ -170,6 +170,117 @@
   </si>
   <si>
     <t>Resmed</t>
+  </si>
+  <si>
+    <t>Hoya</t>
+  </si>
+  <si>
+    <t>7741 JP</t>
+  </si>
+  <si>
+    <t>Idexx Labs</t>
+  </si>
+  <si>
+    <t>IDXX</t>
+  </si>
+  <si>
+    <t>Dexcom</t>
+  </si>
+  <si>
+    <t>DXCM</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>ILMN</t>
+  </si>
+  <si>
+    <t>MTD</t>
+  </si>
+  <si>
+    <t>Mettler-Toledo</t>
+  </si>
+  <si>
+    <t>7733 JP</t>
+  </si>
+  <si>
+    <t>Olympus</t>
+  </si>
+  <si>
+    <t>Coloplast</t>
+  </si>
+  <si>
+    <t>COLOB</t>
+  </si>
+  <si>
+    <t>4543 JP</t>
+  </si>
+  <si>
+    <t>Terumo</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>Sonova</t>
+  </si>
+  <si>
+    <t>SOON</t>
+  </si>
+  <si>
+    <t>Steris</t>
+  </si>
+  <si>
+    <t>STE</t>
+  </si>
+  <si>
+    <t>Straumann</t>
+  </si>
+  <si>
+    <t>STMN SW</t>
+  </si>
+  <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>WAT</t>
+  </si>
+  <si>
+    <t>Avantor</t>
+  </si>
+  <si>
+    <t>AVTR</t>
+  </si>
+  <si>
+    <t>Philips</t>
+  </si>
+  <si>
+    <t>PHIA</t>
+  </si>
+  <si>
+    <t>Hologic</t>
+  </si>
+  <si>
+    <t>HOLX</t>
+  </si>
+  <si>
+    <t>Sartorius Stedim</t>
+  </si>
+  <si>
+    <t>DIM FP</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sartorius</t>
+  </si>
+  <si>
+    <t>SRT GR</t>
   </si>
 </sst>
 </file>
@@ -526,13 +637,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="B2:E23"/>
+  <dimension ref="B2:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -543,6 +654,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -579,146 +693,290 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBD47FC-665E-4B95-BD36-E1FF55CFDD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73E3223-190B-4607-8A3E-5EF08962B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="510" windowWidth="20310" windowHeight="14910" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="7770" yWindow="390" windowWidth="20745" windowHeight="14490" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
+    <sheet name="Life Sciences+Diagnostics" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Medtronic</t>
   </si>
@@ -281,16 +285,35 @@
   </si>
   <si>
     <t>SRT GR</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Q122</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -312,10 +335,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -323,8 +347,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -338,6 +370,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1345</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>10573</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>24114</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,23 +700,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="B2:E41"/>
+  <dimension ref="B2:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>79</v>
       </c>
@@ -666,16 +730,43 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="3">
+        <v>87.9</v>
+      </c>
+      <c r="E3" s="4">
+        <f>+D3*[1]Main!$M$3</f>
+        <v>118225.50000000001</v>
+      </c>
+      <c r="F3" s="4">
+        <f>+[1]Main!$M$5-[1]Main!$M$6</f>
+        <v>-13541</v>
+      </c>
+      <c r="G3" s="4">
+        <f>+E3-F3</f>
+        <v>131766.5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -683,7 +774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -691,7 +782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -699,7 +790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -707,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -715,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -723,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -731,7 +822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -739,7 +830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -747,7 +838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -755,7 +846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -763,7 +854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -771,7 +862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -980,6 +1071,21 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{EE78F7FD-1E0D-4B3C-B2D4-375FAB09E5B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73E3223-190B-4607-8A3E-5EF08962B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B2EF5-B4A3-46FC-B944-F61E1CD63F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="390" windowWidth="20745" windowHeight="14490" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="8595" yWindow="7530" windowWidth="20745" windowHeight="7470" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
-    <sheet name="Life Sciences+Diagnostics" sheetId="2" r:id="rId2"/>
+    <sheet name="Animal" sheetId="3" r:id="rId2"/>
+    <sheet name="Life Sciences+Diagnostics" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Medtronic</t>
   </si>
@@ -397,7 +399,38 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>1750.9422890000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>8921</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>17090</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -700,13 +733,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="B2:H41"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -742,350 +775,448 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>109.09</v>
+      </c>
+      <c r="E3" s="4">
+        <f>+D3*[2]Main!$L$3</f>
+        <v>191010.29430701002</v>
+      </c>
+      <c r="F3" s="4">
+        <f>+[2]Main!$L$5-[2]Main!$L$6</f>
+        <v>-8169</v>
+      </c>
+      <c r="G3" s="4">
+        <f>+E3-F3</f>
+        <v>199179.29430701002</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>87.9</v>
       </c>
-      <c r="E3" s="4">
-        <f>+D3*[1]Main!$M$3</f>
+      <c r="E4" s="4">
+        <f>+D4*[1]Main!$M$3</f>
         <v>118225.50000000001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="4">
         <f>+[1]Main!$M$5-[1]Main!$M$6</f>
         <v>-13541</v>
       </c>
-      <c r="G3" s="4">
-        <f>+E3-F3</f>
+      <c r="G4" s="4">
+        <f>+E4-F4</f>
         <v>131766.5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{EE78F7FD-1E0D-4B3C-B2D4-375FAB09E5B5}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{EE78F7FD-1E0D-4B3C-B2D4-375FAB09E5B5}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{6A4240A9-D029-4FD3-B05B-8C1028FD4219}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23D8427-6593-41F3-A83F-2502A7FAEA38}">
+  <dimension ref="B2:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
+  <dimension ref="B2:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B2EF5-B4A3-46FC-B944-F61E1CD63F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8361321D-28DF-4C7A-8896-689D7F44D1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8595" yWindow="7530" windowWidth="20745" windowHeight="7470" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="12270" yWindow="3885" windowWidth="15675" windowHeight="10425" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -384,18 +384,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1345</v>
+          <cell r="L3">
+            <v>1750.9422890000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>10573</v>
+          <cell r="L5">
+            <v>8921</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>24114</v>
+          <cell r="L6">
+            <v>17090</v>
           </cell>
         </row>
       </sheetData>
@@ -415,18 +415,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>1750.9422890000001</v>
+          <cell r="M3">
+            <v>1345</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>8921</v>
+          <cell r="M5">
+            <v>10573</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>17090</v>
+          <cell r="M6">
+            <v>24114</v>
           </cell>
         </row>
       </sheetData>
@@ -736,10 +736,10 @@
   <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -784,11 +784,11 @@
         <v>109.09</v>
       </c>
       <c r="E3" s="4">
-        <f>+D3*[2]Main!$L$3</f>
+        <f>+D3*[1]Main!$L$3</f>
         <v>191010.29430701002</v>
       </c>
       <c r="F3" s="4">
-        <f>+[2]Main!$L$5-[2]Main!$L$6</f>
+        <f>+[1]Main!$L$5-[1]Main!$L$6</f>
         <v>-8169</v>
       </c>
       <c r="G3" s="4">
@@ -810,11 +810,11 @@
         <v>87.9</v>
       </c>
       <c r="E4" s="4">
-        <f>+D4*[1]Main!$M$3</f>
+        <f>+D4*[2]Main!$M$3</f>
         <v>118225.50000000001</v>
       </c>
       <c r="F4" s="4">
-        <f>+[1]Main!$M$5-[1]Main!$M$6</f>
+        <f>+[2]Main!$M$5-[2]Main!$M$6</f>
         <v>-13541</v>
       </c>
       <c r="G4" s="4">

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8361321D-28DF-4C7A-8896-689D7F44D1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C6843E-5A70-46D7-8003-5976B7762F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="3885" windowWidth="15675" windowHeight="10425" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="18645" windowHeight="15405" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Medtronic</t>
   </si>
@@ -431,6 +433,68 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>378.15408000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>1530</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>14099</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>358.95651099999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>8401.7999999999993</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -739,7 +803,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -826,19 +890,55 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="3">
+        <v>198.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f>+D5*[3]Main!$L$3</f>
+        <v>75063.584880000009</v>
+      </c>
+      <c r="F5" s="4">
+        <f>+[3]Main!$L$5-[3]Main!$L$6</f>
+        <v>-12569</v>
+      </c>
+      <c r="G5" s="4">
+        <f>+E5-F5</f>
+        <v>87632.584880000009</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>224.75</v>
+      </c>
+      <c r="E6" s="4">
+        <f>+D6*[4]Main!$K$3</f>
+        <v>80675.475847249996</v>
+      </c>
+      <c r="F6" s="4">
+        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
+        <v>8401.7999999999993</v>
+      </c>
+      <c r="G6" s="4">
+        <f>+E6-F6</f>
+        <v>72273.675847249993</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -1053,8 +1153,11 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{EE78F7FD-1E0D-4B3C-B2D4-375FAB09E5B5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{6A4240A9-D029-4FD3-B05B-8C1028FD4219}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{277E0E83-6CCF-41D9-932E-831CCB9C271F}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C6843E-5A70-46D7-8003-5976B7762F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8DC2DD-24C9-4967-AC40-1A26EA539AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="18645" windowHeight="15405" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="10155" yWindow="6090" windowWidth="18645" windowHeight="9315" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -494,7 +495,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>621.75173600000005</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -803,7 +823,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -942,11 +962,18 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>103.77</v>
+      </c>
+      <c r="E7" s="1">
+        <f>+D7*[5]Main!$L$3</f>
+        <v>64519.177644720003</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -1155,9 +1182,10 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{6A4240A9-D029-4FD3-B05B-8C1028FD4219}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{277E0E83-6CCF-41D9-932E-831CCB9C271F}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{8C8CFEF4-EC99-4BD1-8542-5F27AB3FBF8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8DC2DD-24C9-4967-AC40-1A26EA539AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D21EC79-556E-40A2-B80B-37292F1F8503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="6090" windowWidth="18645" windowHeight="9315" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="8910" yWindow="5730" windowWidth="18645" windowHeight="9315" activeTab="2" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>Medtronic</t>
   </si>
@@ -506,6 +506,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -514,7 +515,18 @@
             <v>621.75173600000005</v>
           </cell>
         </row>
+        <row r="5">
+          <cell r="L5">
+            <v>3119.6000000000004</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>595.9</v>
+          </cell>
+        </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -819,11 +831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -971,9 +983,20 @@
       <c r="D7" s="1">
         <v>103.77</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <f>+D7*[5]Main!$L$3</f>
         <v>64519.177644720003</v>
+      </c>
+      <c r="F7" s="4">
+        <f>+[5]Main!$L$5-[5]Main!$L$6</f>
+        <v>2523.7000000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <f>+E7-F7</f>
+        <v>61995.477644720006</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -1240,11 +1263,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D21EC79-556E-40A2-B80B-37292F1F8503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9478A626-CE49-498A-BCFD-771A00123DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="5730" windowWidth="18645" windowHeight="9315" activeTab="2" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -831,11 +831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9478A626-CE49-498A-BCFD-771A00123DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F44DF2-B898-4049-B5B7-5566781B4C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="62430" yWindow="2670" windowWidth="28965" windowHeight="17790" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>Medtronic</t>
   </si>
@@ -139,9 +139,6 @@
     <t>BDX</t>
   </si>
   <si>
-    <t>Essilor</t>
-  </si>
-  <si>
     <t>EL FP</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>300760 CH</t>
   </si>
   <si>
-    <t>Siemens</t>
-  </si>
-  <si>
     <t>SHL GR</t>
   </si>
   <si>
@@ -302,13 +296,58 @@
   </si>
   <si>
     <t>Q122</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>EV/E 22</t>
+  </si>
+  <si>
+    <t>EV/E 23</t>
+  </si>
+  <si>
+    <t>EV/E 24</t>
+  </si>
+  <si>
+    <t>EPS 22</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>EssilorLuxottica</t>
+  </si>
+  <si>
+    <t>Siemens Healthineers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -322,6 +361,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -331,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -339,12 +384,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -359,6 +450,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -829,26 +944,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="B2:H32"/>
+  <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
     <col min="4" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -860,16 +975,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
@@ -892,10 +1010,13 @@
         <v>199179.29430701002</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -918,10 +1039,13 @@
         <v>131766.5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -944,10 +1068,13 @@
         <v>87632.584880000009</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -970,153 +1097,171 @@
         <v>72273.675847249993</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>103.77</v>
       </c>
-      <c r="E7" s="4">
-        <f>+D7*[5]Main!$L$3</f>
+      <c r="E8" s="4">
+        <f>+D8*[5]Main!$L$3</f>
         <v>64519.177644720003</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <f>+[5]Main!$L$5-[5]Main!$L$6</f>
         <v>2523.7000000000003</v>
       </c>
-      <c r="G7" s="4">
-        <f>+E7-F7</f>
+      <c r="G8" s="4">
+        <f>+E8-F8</f>
         <v>61995.477644720006</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -1129,74 +1274,74 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1350,7 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{6A4240A9-D029-4FD3-B05B-8C1028FD4219}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{277E0E83-6CCF-41D9-932E-831CCB9C271F}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{8C8CFEF4-EC99-4BD1-8542-5F27AB3FBF8E}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{8C8CFEF4-EC99-4BD1-8542-5F27AB3FBF8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -1214,26 +1359,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23D8427-6593-41F3-A83F-2502A7FAEA38}">
-  <dimension ref="B2:H4"/>
+  <dimension ref="A2:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -1241,12 +1393,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1261,35 +1413,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="A2:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="13">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="U2" s="12">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="12">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="13">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1297,12 +1516,15 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1310,7 +1532,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1545,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1336,20 +1558,20 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1357,12 +1579,12 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F44DF2-B898-4049-B5B7-5566781B4C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF75954-9427-442D-83E4-149992F3DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62430" yWindow="2670" windowWidth="28965" windowHeight="17790" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="28455" yWindow="5985" windowWidth="22155" windowHeight="14205" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>Medtronic</t>
   </si>
@@ -944,13 +944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:H32"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1177,22 +1177,31 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -1201,146 +1210,169 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
       <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF75954-9427-442D-83E4-149992F3DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D66C85F-183A-4D36-8053-A9E7F426797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28455" yWindow="5985" windowWidth="22155" windowHeight="14205" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="51690" yWindow="840" windowWidth="24495" windowHeight="16830" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
   <si>
     <t>Medtronic</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>Siemens Healthineers</t>
+  </si>
+  <si>
+    <t>Fujifilm</t>
+  </si>
+  <si>
+    <t>4901 JP</t>
   </si>
 </sst>
 </file>
@@ -944,13 +950,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1265,115 +1271,157 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
       <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D66C85F-183A-4D36-8053-A9E7F426797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB1061-2DBB-4E0F-9D1B-1C4DCBA9EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51690" yWindow="840" windowWidth="24495" windowHeight="16830" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="30345" yWindow="1110" windowWidth="19485" windowHeight="19590" activeTab="2" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
   <si>
     <t>Medtronic</t>
   </si>
@@ -347,6 +348,117 @@
   </si>
   <si>
     <t>4901 JP</t>
+  </si>
+  <si>
+    <t>Bio-Techne</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>Bio-Rad</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>Insulet</t>
+  </si>
+  <si>
+    <t>PODD</t>
+  </si>
+  <si>
+    <t>Beijing Wantai</t>
+  </si>
+  <si>
+    <t>603392 CH</t>
+  </si>
+  <si>
+    <t>PerkinElmer</t>
+  </si>
+  <si>
+    <t>PKI</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>Imeik Technology</t>
+  </si>
+  <si>
+    <t>300896 CH</t>
+  </si>
+  <si>
+    <t>Abiomed</t>
+  </si>
+  <si>
+    <t>ABMD</t>
+  </si>
+  <si>
+    <t>Carl Zeiss</t>
+  </si>
+  <si>
+    <t>AFX GR</t>
+  </si>
+  <si>
+    <t>Smith &amp; Nephew</t>
+  </si>
+  <si>
+    <t>SN/ LN</t>
+  </si>
+  <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>BRKR</t>
+  </si>
+  <si>
+    <t>Elanco</t>
+  </si>
+  <si>
+    <t>ELAN</t>
+  </si>
+  <si>
+    <t>Cochlear</t>
+  </si>
+  <si>
+    <t>COH AU</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>EXAS</t>
+  </si>
+  <si>
+    <t>Demant</t>
+  </si>
+  <si>
+    <t>DEMANT DC</t>
+  </si>
+  <si>
+    <t>Qiagen</t>
+  </si>
+  <si>
+    <t>QGEN</t>
+  </si>
+  <si>
+    <t>Henry Schein</t>
+  </si>
+  <si>
+    <t>HSIC</t>
+  </si>
+  <si>
+    <t>Charles River</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>Q222</t>
   </si>
 </sst>
 </file>
@@ -441,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -480,6 +592,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -644,6 +757,37 @@
         <row r="6">
           <cell r="L6">
             <v>595.9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="H3">
+            <v>391.78896200000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>1888</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>30260</v>
           </cell>
         </row>
       </sheetData>
@@ -950,13 +1094,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:H36"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1394,34 +1538,114 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1439,13 +1663,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23D8427-6593-41F3-A83F-2502A7FAEA38}">
-  <dimension ref="A2:H4"/>
+  <dimension ref="A2:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1486,6 +1710,14 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1493,13 +1725,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X9"/>
+  <dimension ref="A2:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1584,17 +1816,37 @@
       <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="1">
+        <v>541.28</v>
+      </c>
+      <c r="E3" s="4">
+        <f>+D3*H3</f>
+        <v>212067.52935135999</v>
+      </c>
+      <c r="F3" s="4">
+        <f>+[6]Main!$H$5-[6]Main!$H$6</f>
+        <v>-28372</v>
+      </c>
+      <c r="G3" s="4">
+        <f>+E3-F3</f>
+        <v>240439.52935135999</v>
+      </c>
+      <c r="H3" s="4">
+        <f>+[6]Main!$H$3</f>
+        <v>391.78896200000003</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="16">
+        <v>44823</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1614,23 +1866,18 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1640,39 +1887,114 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB1061-2DBB-4E0F-9D1B-1C4DCBA9EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934EC9BB-BEDB-40BB-BCB5-6F4134A946BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="1110" windowWidth="19485" windowHeight="19590" activeTab="2" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="53040" yWindow="7185" windowWidth="31935" windowHeight="13605" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="142">
   <si>
     <t>Medtronic</t>
   </si>
@@ -459,6 +459,18 @@
   </si>
   <si>
     <t>Q222</t>
+  </si>
+  <si>
+    <t>Sysmex</t>
+  </si>
+  <si>
+    <t>6869 JP</t>
+  </si>
+  <si>
+    <t>BioMerieux</t>
+  </si>
+  <si>
+    <t>BIM FP</t>
   </si>
 </sst>
 </file>
@@ -1094,13 +1106,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:H46"/>
+  <dimension ref="A2:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1646,6 +1658,22 @@
       </c>
       <c r="C46" s="2" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1727,11 +1755,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934EC9BB-BEDB-40BB-BCB5-6F4134A946BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2193E22B-8DD1-402A-9B1D-BE13DC246558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53040" yWindow="7185" windowWidth="31935" windowHeight="13605" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="5550" yWindow="930" windowWidth="24855" windowHeight="19110" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="153">
   <si>
     <t>Medtronic</t>
   </si>
@@ -471,6 +471,39 @@
   </si>
   <si>
     <t>BIM FP</t>
+  </si>
+  <si>
+    <t>Teleflex</t>
+  </si>
+  <si>
+    <t>TFX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Novocure</t>
+  </si>
+  <si>
+    <t>NVCR</t>
+  </si>
+  <si>
+    <t>Masimo</t>
+  </si>
+  <si>
+    <t>MASI</t>
+  </si>
+  <si>
+    <t>Dentsply Sirona</t>
+  </si>
+  <si>
+    <t>XRAY</t>
+  </si>
+  <si>
+    <t>Bloomage Biotech</t>
+  </si>
+  <si>
+    <t>688363 CH</t>
   </si>
 </sst>
 </file>
@@ -1106,13 +1139,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:H48"/>
+  <dimension ref="A2:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>69</v>
       </c>
@@ -1556,7 +1589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>71</v>
       </c>
@@ -1564,7 +1597,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>73</v>
       </c>
@@ -1572,7 +1605,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
       <c r="B36" t="s">
         <v>105</v>
       </c>
@@ -1580,7 +1616,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>107</v>
       </c>
@@ -1588,7 +1624,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
       <c r="B38" t="s">
         <v>111</v>
       </c>
@@ -1596,7 +1635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>113</v>
       </c>
@@ -1604,7 +1643,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
       <c r="B40" t="s">
         <v>115</v>
       </c>
@@ -1612,7 +1654,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
       <c r="B41" t="s">
         <v>119</v>
       </c>
@@ -1620,7 +1665,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
       <c r="B42" t="s">
         <v>125</v>
       </c>
@@ -1628,7 +1676,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>127</v>
       </c>
@@ -1636,7 +1684,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
       <c r="B44" t="s">
         <v>129</v>
       </c>
@@ -1644,7 +1695,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
       <c r="B45" t="s">
         <v>131</v>
       </c>
@@ -1652,7 +1706,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
       <c r="B46" t="s">
         <v>133</v>
       </c>
@@ -1660,7 +1717,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
       <c r="B47" t="s">
         <v>138</v>
       </c>
@@ -1668,12 +1728,70 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
       <c r="B48" t="s">
         <v>140</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +1815,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1739,6 +1857,9 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
       <c r="B5" t="s">
         <v>123</v>
       </c>
@@ -1759,7 +1880,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1943,6 +2064,9 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1988,6 +2112,9 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
       <c r="B15" t="s">
         <v>117</v>
       </c>
@@ -2003,7 +2130,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
       <c r="B17" t="s">
         <v>121</v>
       </c>
@@ -2011,7 +2141,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>135</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2193E22B-8DD1-402A-9B1D-BE13DC246558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB3EC46-9B6C-4A25-A5C5-1C52D6B3E663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="930" windowWidth="24855" windowHeight="19110" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="74910" yWindow="2700" windowWidth="27720" windowHeight="16485" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="153">
   <si>
     <t>Medtronic</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Coloplast</t>
   </si>
   <si>
-    <t>COLOB</t>
-  </si>
-  <si>
     <t>4543 JP</t>
   </si>
   <si>
@@ -504,6 +501,9 @@
   </si>
   <si>
     <t>688363 CH</t>
+  </si>
+  <si>
+    <t>COLOB DC</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1145,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1158,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1170,18 +1170,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
@@ -1205,12 +1205,12 @@
         <v>199179.29430701002</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1234,12 +1234,12 @@
         <v>131766.5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -1263,12 +1263,12 @@
         <v>87632.584880000009</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
@@ -1292,12 +1292,12 @@
         <v>72273.675847249993</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -1332,15 +1332,15 @@
         <v>61995.477644720006</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1439,18 +1439,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
@@ -1483,29 +1483,29 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
@@ -1526,27 +1526,30 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
       <c r="B26" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1559,239 +1562,239 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +1829,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1834,7 +1837,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1858,13 +1861,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1892,7 +1895,7 @@
   <sheetData>
     <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -1904,49 +1907,49 @@
         <v>10</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="S2" s="13">
         <v>2025</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U2" s="12">
         <v>2023</v>
@@ -1958,12 +1961,12 @@
         <v>2025</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -1991,7 +1994,7 @@
         <v>391.78896200000003</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J3" s="16">
         <v>44823</v>
@@ -1999,7 +2002,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -2049,23 +2052,23 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -2081,45 +2084,45 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2132,21 +2135,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB3EC46-9B6C-4A25-A5C5-1C52D6B3E663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFF75DA-4FDD-41A9-9B22-D2753168C137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74910" yWindow="2700" windowWidth="27720" windowHeight="16485" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-28155" yWindow="1425" windowWidth="27315" windowHeight="18315" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="153">
   <si>
     <t>Medtronic</t>
   </si>
@@ -1145,7 +1145,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1537,6 +1537,9 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFF75DA-4FDD-41A9-9B22-D2753168C137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE34F1F-6B7F-4FF7-82D4-225EBE5E8BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28155" yWindow="1425" windowWidth="27315" windowHeight="18315" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-50070" yWindow="2115" windowWidth="36795" windowHeight="17595" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Medical Devices" sheetId="1" r:id="rId1"/>
-    <sheet name="Animal" sheetId="3" r:id="rId2"/>
-    <sheet name="Life Sciences+Diagnostics" sheetId="2" r:id="rId3"/>
+    <sheet name="Resources" sheetId="4" r:id="rId1"/>
+    <sheet name="Medical Devices" sheetId="1" r:id="rId2"/>
+    <sheet name="Animal" sheetId="3" r:id="rId3"/>
+    <sheet name="Life Sciences+Diagnostics" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
   <si>
     <t>Medtronic</t>
   </si>
@@ -504,6 +505,9 @@
   </si>
   <si>
     <t>COLOB DC</t>
+  </si>
+  <si>
+    <t>https://www.pharma-iq.com/vendors</t>
   </si>
 </sst>
 </file>
@@ -1138,6 +1142,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9DDF09-9767-4626-AE33-17729200745B}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{64D93314-4353-41E9-9F2A-F954118EA954}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:H53"/>
   <sheetViews>
@@ -1145,7 +1172,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1305,6 +1332,9 @@
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="D7" s="1">
+        <v>237.58</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1813,7 +1843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23D8427-6593-41F3-A83F-2502A7FAEA38}">
   <dimension ref="A2:H5"/>
   <sheetViews>
@@ -1878,7 +1908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X18"/>
   <sheetViews>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE34F1F-6B7F-4FF7-82D4-225EBE5E8BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEECFF3-8E79-45C6-B76C-015A61CC1D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50070" yWindow="2115" windowWidth="36795" windowHeight="17595" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-51240" yWindow="195" windowWidth="33795" windowHeight="20775" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
   <si>
     <t>Medtronic</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>https://www.pharma-iq.com/vendors</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>SO</t>
   </si>
 </sst>
 </file>
@@ -1166,13 +1172,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:H53"/>
+  <dimension ref="A2:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1180,10 +1186,10 @@
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="4" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -1197,16 +1203,22 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1231,11 +1243,12 @@
         <f>+E3-F3</f>
         <v>199179.29430701002</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1260,11 +1273,12 @@
         <f>+E4-F4</f>
         <v>131766.5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1289,11 +1303,12 @@
         <f>+E5-F5</f>
         <v>87632.584880000009</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1318,11 +1333,12 @@
         <f>+E6-F6</f>
         <v>72273.675847249993</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1336,7 +1352,7 @@
         <v>237.58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1361,11 +1377,12 @@
         <f>+E8-F8</f>
         <v>61995.477644720006</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1378,8 +1395,9 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1390,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1401,7 +1419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1412,7 +1430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1423,7 +1441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1434,7 +1452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1445,7 +1463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEECFF3-8E79-45C6-B76C-015A61CC1D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C011D8-C157-4A6A-A839-65B766783FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51240" yWindow="195" windowWidth="33795" windowHeight="20775" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-47460" yWindow="435" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="156">
   <si>
     <t>Medtronic</t>
   </si>
@@ -1178,7 +1178,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1596,6 +1596,9 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C011D8-C157-4A6A-A839-65B766783FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF52474-5E6D-4354-B24B-79E809B6C0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47460" yWindow="435" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-37905" yWindow="45" windowWidth="37950" windowHeight="20850" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="157">
   <si>
     <t>Medtronic</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>SO</t>
+  </si>
+  <si>
+    <t>Q322</t>
   </si>
 </sst>
 </file>
@@ -677,21 +680,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>1750.9422890000001</v>
+            <v>1743.5737770000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>8921</v>
+            <v>10671</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>17090</v>
+            <v>16414</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1178,7 +1181,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1229,23 +1232,29 @@
         <v>24</v>
       </c>
       <c r="D3" s="1">
-        <v>109.09</v>
+        <v>112.33</v>
       </c>
       <c r="E3" s="4">
-        <f>+D3*[1]Main!$L$3</f>
-        <v>191010.29430701002</v>
+        <f>+D3*H3</f>
+        <v>195855.64237041</v>
       </c>
       <c r="F3" s="4">
         <f>+[1]Main!$L$5-[1]Main!$L$6</f>
-        <v>-8169</v>
+        <v>-5743</v>
       </c>
       <c r="G3" s="4">
         <f>+E3-F3</f>
-        <v>199179.29430701002</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>201598.64237041</v>
+      </c>
+      <c r="H3" s="4">
+        <f>+[1]Main!$L$3</f>
+        <v>1743.5737770000001</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>82</v>
+        <v>156</v>
+      </c>
+      <c r="J3" s="16">
+        <v>44932</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF52474-5E6D-4354-B24B-79E809B6C0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC85F1C8-58E6-445D-9259-7165F485C84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37905" yWindow="45" windowWidth="37950" windowHeight="20850" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="26220" yWindow="270" windowWidth="24615" windowHeight="20310" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
     <sheet name="Medical Devices" sheetId="1" r:id="rId2"/>
     <sheet name="Animal" sheetId="3" r:id="rId3"/>
     <sheet name="Life Sciences+Diagnostics" sheetId="2" r:id="rId4"/>
+    <sheet name="Private" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="165">
   <si>
     <t>Medtronic</t>
   </si>
@@ -517,6 +519,30 @@
   </si>
   <si>
     <t>Q322</t>
+  </si>
+  <si>
+    <t>Freenome</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>CMR Surgical</t>
+  </si>
+  <si>
+    <t>Robotics</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Embecta</t>
+  </si>
+  <si>
+    <t>EMBC</t>
   </si>
 </sst>
 </file>
@@ -670,7 +696,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -694,14 +720,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -732,7 +758,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -763,7 +789,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -794,7 +820,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -825,7 +851,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -850,6 +876,40 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>283.90164199999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>745</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>16456</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1175,13 +1235,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:J53"/>
+  <dimension ref="A2:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1192,7 +1252,7 @@
     <col min="4" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -1220,8 +1280,11 @@
       <c r="J2" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1257,7 +1320,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1287,7 +1350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1317,51 +1380,76 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <v>245</v>
+      </c>
+      <c r="E6" s="4">
+        <f>+D6*H6</f>
+        <v>69555.902289999998</v>
+      </c>
+      <c r="F6" s="4">
+        <f>+[7]Main!$M$5-[7]Main!$M$6</f>
+        <v>-15711</v>
+      </c>
+      <c r="G6" s="4">
+        <f>+E6-F6</f>
+        <v>85266.902289999998</v>
+      </c>
+      <c r="H6" s="4">
+        <f>+[7]Main!$M$3</f>
+        <v>283.90164199999998</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="16">
+        <v>44961</v>
+      </c>
+      <c r="K6">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>224.75</v>
       </c>
-      <c r="E6" s="4">
-        <f>+D6*[4]Main!$K$3</f>
+      <c r="E7" s="4">
+        <f>+D7*[4]Main!$K$3</f>
         <v>80675.475847249996</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <f>+[4]Main!$K$5-[4]Main!$K$6</f>
         <v>8401.7999999999993</v>
       </c>
-      <c r="G6" s="4">
-        <f>+E6-F6</f>
+      <c r="G7" s="4">
+        <f>+E7-F7</f>
         <v>72273.675847249993</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="1" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1">
-        <v>237.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1391,7 +1479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1406,7 +1494,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1417,7 +1505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1428,7 +1516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1439,7 +1527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1450,7 +1538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1461,7 +1549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1472,7 +1560,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1858,6 +1946,14 @@
       </c>
       <c r="C53" s="2" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1865,11 +1961,12 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{EE78F7FD-1E0D-4B3C-B2D4-375FAB09E5B5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{6A4240A9-D029-4FD3-B05B-8C1028FD4219}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{277E0E83-6CCF-41D9-932E-831CCB9C271F}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{8C8CFEF4-EC99-4BD1-8542-5F27AB3FBF8E}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{33504D51-2E3F-4370-BCBD-318C828A1903}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2221,4 +2318,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDE9693-164E-4AE4-AD52-72E635F966BE}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3">
+        <v>2014</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC85F1C8-58E6-445D-9259-7165F485C84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A240FC-A62C-4073-B683-5D858E55DB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26220" yWindow="270" windowWidth="24615" windowHeight="20310" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="10245" yWindow="135" windowWidth="41355" windowHeight="20745" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="169">
   <si>
     <t>Medtronic</t>
   </si>
@@ -543,6 +543,18 @@
   </si>
   <si>
     <t>EMBC</t>
+  </si>
+  <si>
+    <t>Genscript</t>
+  </si>
+  <si>
+    <t>1548 HK</t>
+  </si>
+  <si>
+    <t>Shockwave</t>
+  </si>
+  <si>
+    <t>SWAV</t>
   </si>
 </sst>
 </file>
@@ -791,6 +803,40 @@
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>283.90164199999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>745</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>16456</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -819,7 +865,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -850,7 +896,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -876,40 +922,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>283.90164199999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>745</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>16456</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1235,13 +1247,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:K54"/>
+  <dimension ref="A2:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1306,7 +1318,7 @@
         <v>-5743</v>
       </c>
       <c r="G3" s="4">
-        <f>+E3-F3</f>
+        <f t="shared" ref="G3:G8" si="0">+E3-F3</f>
         <v>201598.64237041</v>
       </c>
       <c r="H3" s="4">
@@ -1342,7 +1354,7 @@
         <v>-13541</v>
       </c>
       <c r="G4" s="4">
-        <f>+E4-F4</f>
+        <f t="shared" si="0"/>
         <v>131766.5</v>
       </c>
       <c r="H4" s="4"/>
@@ -1372,7 +1384,7 @@
         <v>-12569</v>
       </c>
       <c r="G5" s="4">
-        <f>+E5-F5</f>
+        <f t="shared" si="0"/>
         <v>87632.584880000009</v>
       </c>
       <c r="H5" s="4"/>
@@ -1398,15 +1410,15 @@
         <v>69555.902289999998</v>
       </c>
       <c r="F6" s="4">
-        <f>+[7]Main!$M$5-[7]Main!$M$6</f>
+        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>-15711</v>
       </c>
       <c r="G6" s="4">
-        <f>+E6-F6</f>
+        <f t="shared" si="0"/>
         <v>85266.902289999998</v>
       </c>
       <c r="H6" s="4">
-        <f>+[7]Main!$M$3</f>
+        <f>+[4]Main!$M$3</f>
         <v>283.90164199999998</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1433,15 +1445,15 @@
         <v>224.75</v>
       </c>
       <c r="E7" s="4">
-        <f>+D7*[4]Main!$K$3</f>
+        <f>+D7*[5]Main!$K$3</f>
         <v>80675.475847249996</v>
       </c>
       <c r="F7" s="4">
-        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
+        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
         <v>8401.7999999999993</v>
       </c>
       <c r="G7" s="4">
-        <f>+E7-F7</f>
+        <f t="shared" si="0"/>
         <v>72273.675847249993</v>
       </c>
       <c r="H7" s="4"/>
@@ -1463,15 +1475,15 @@
         <v>103.77</v>
       </c>
       <c r="E8" s="4">
-        <f>+D8*[5]Main!$L$3</f>
+        <f>+D8*[6]Main!$L$3</f>
         <v>64519.177644720003</v>
       </c>
       <c r="F8" s="4">
-        <f>+[5]Main!$L$5-[5]Main!$L$6</f>
+        <f>+[6]Main!$L$5-[6]Main!$L$6</f>
         <v>2523.7000000000003</v>
       </c>
       <c r="G8" s="4">
-        <f>+E8-F8</f>
+        <f t="shared" si="0"/>
         <v>61995.477644720006</v>
       </c>
       <c r="H8" s="4"/>
@@ -1954,6 +1966,17 @@
       </c>
       <c r="C54" s="2" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2037,13 +2060,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X18"/>
+  <dimension ref="A2:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2142,7 +2165,7 @@
         <v>212067.52935135999</v>
       </c>
       <c r="F3" s="4">
-        <f>+[6]Main!$H$5-[6]Main!$H$6</f>
+        <f>+[7]Main!$H$5-[7]Main!$H$6</f>
         <v>-28372</v>
       </c>
       <c r="G3" s="4">
@@ -2150,7 +2173,7 @@
         <v>240439.52935135999</v>
       </c>
       <c r="H3" s="4">
-        <f>+[6]Main!$H$3</f>
+        <f>+[7]Main!$H$3</f>
         <v>391.78896200000003</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2310,6 +2333,17 @@
       </c>
       <c r="C18" s="2" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A240FC-A62C-4073-B683-5D858E55DB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D167D09-F34A-4C1A-BF1F-490BD9EAA8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="135" windowWidth="41355" windowHeight="20745" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -695,7 +695,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C5AC9E4C-B75C-4323-8B84-9B210DA60FE7}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1226,9 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9DDF09-9767-4626-AE33-17729200745B}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1250,10 +1250,10 @@
   <dimension ref="A2:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2062,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D167D09-F34A-4C1A-BF1F-490BD9EAA8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E6FE7-E286-4E75-8971-A3365E06E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-48180" yWindow="2760" windowWidth="38700" windowHeight="15345" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="176">
   <si>
     <t>Medtronic</t>
   </si>
@@ -555,6 +555,27 @@
   </si>
   <si>
     <t>SWAV</t>
+  </si>
+  <si>
+    <t>Telesis Bio</t>
+  </si>
+  <si>
+    <t>TBIO</t>
+  </si>
+  <si>
+    <t>Fortis Life Sciences</t>
+  </si>
+  <si>
+    <t>Backed by Summit, various LS brands</t>
+  </si>
+  <si>
+    <t>New England BioLabs</t>
+  </si>
+  <si>
+    <t>Life Sciences</t>
+  </si>
+  <si>
+    <t>Gamma Biosciences</t>
   </si>
 </sst>
 </file>
@@ -743,6 +764,9 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Models"/>
@@ -751,7 +775,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>1345</v>
+            <v>1330.423708</v>
           </cell>
         </row>
         <row r="5">
@@ -1249,11 +1273,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1343,11 +1367,11 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>87.9</v>
+        <v>79.069999999999993</v>
       </c>
       <c r="E4" s="4">
         <f>+D4*[2]Main!$M$3</f>
-        <v>118225.50000000001</v>
+        <v>105196.60259155999</v>
       </c>
       <c r="F4" s="4">
         <f>+[2]Main!$M$5-[2]Main!$M$6</f>
@@ -1355,11 +1379,14 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>131766.5</v>
+        <v>118737.60259155999</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="J4" s="16">
+        <v>45014</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2060,13 +2087,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X19"/>
+  <dimension ref="A2:X21"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2346,6 +2373,19 @@
         <v>166</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
@@ -2356,13 +2396,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDE9693-164E-4AE4-AD52-72E635F966BE}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2401,6 +2441,22 @@
         <v>161</v>
       </c>
     </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E6FE7-E286-4E75-8971-A3365E06E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7C4294-16A4-4665-87B9-8CEEFDDF244C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48180" yWindow="2760" windowWidth="38700" windowHeight="15345" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-24600" yWindow="270" windowWidth="24000" windowHeight="20565" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="183">
   <si>
     <t>Medtronic</t>
   </si>
@@ -479,9 +479,6 @@
     <t>TFX</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Novocure</t>
   </si>
   <si>
@@ -576,13 +573,37 @@
   </si>
   <si>
     <t>Gamma Biosciences</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>GEHC</t>
+  </si>
+  <si>
+    <t>Shanghai United Imaging</t>
+  </si>
+  <si>
+    <t>688271 CH</t>
+  </si>
+  <si>
+    <t>10X Genomics</t>
+  </si>
+  <si>
+    <t>TXG</t>
+  </si>
+  <si>
+    <t>Globus</t>
+  </si>
+  <si>
+    <t>GMED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -597,6 +618,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -670,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -710,6 +738,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1258,7 +1290,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1271,13 +1303,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:K55"/>
+  <dimension ref="A2:K58"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1302,13 +1334,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>81</v>
@@ -1350,7 +1382,7 @@
         <v>1743.5737770000001</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J3" s="16">
         <v>44932</v>
@@ -1449,7 +1481,7 @@
         <v>283.90164199999998</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J6" s="16">
         <v>44961</v>
@@ -1626,10 +1658,10 @@
         <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1637,10 +1669,10 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1648,10 +1680,10 @@
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1659,10 +1691,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1670,10 +1702,10 @@
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1681,10 +1713,10 @@
         <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1692,10 +1724,10 @@
         <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1703,10 +1735,10 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1714,10 +1746,10 @@
         <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1725,10 +1757,10 @@
         <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1736,66 +1768,87 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1803,18 +1856,21 @@
         <v>83</v>
       </c>
       <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1822,18 +1878,21 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1841,21 +1900,21 @@
         <v>83</v>
       </c>
       <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="18" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1863,18 +1922,21 @@
         <v>83</v>
       </c>
       <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1882,10 +1944,10 @@
         <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,10 +1955,10 @@
         <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1904,21 +1966,18 @@
         <v>83</v>
       </c>
       <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1926,10 +1985,10 @@
         <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1937,10 +1996,10 @@
         <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,10 +2007,10 @@
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1959,10 +2018,10 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1970,10 +2029,10 @@
         <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1981,29 +2040,59 @@
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>168</v>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2117,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2057,6 +2146,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -2070,9 +2162,6 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
       <c r="B5" t="s">
         <v>122</v>
       </c>
@@ -2087,13 +2176,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X21"/>
+  <dimension ref="A2:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2227,6 +2316,9 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -2235,6 +2327,9 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
@@ -2248,6 +2343,9 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
@@ -2261,6 +2359,9 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
       <c r="B8" t="s">
         <v>74</v>
       </c>
@@ -2269,6 +2370,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
@@ -2278,7 +2382,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -2293,6 +2397,9 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
       <c r="B11" t="s">
         <v>66</v>
       </c>
@@ -2301,6 +2408,9 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
       <c r="B12" t="s">
         <v>100</v>
       </c>
@@ -2309,6 +2419,9 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -2317,6 +2430,9 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
       <c r="B14" t="s">
         <v>108</v>
       </c>
@@ -2326,7 +2442,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -2345,7 +2461,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>120</v>
@@ -2355,6 +2471,9 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
       <c r="B18" t="s">
         <v>134</v>
       </c>
@@ -2363,27 +2482,35 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
       <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2419,42 +2546,42 @@
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3">
         <v>2014</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
         <v>160</v>
-      </c>
-      <c r="D4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
         <v>171</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
         <v>173</v>
-      </c>
-      <c r="D6" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7C4294-16A4-4665-87B9-8CEEFDDF244C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F7338B-BDC7-4153-9629-F1019FD5EB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24600" yWindow="270" windowWidth="24000" windowHeight="20565" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-47700" yWindow="1185" windowWidth="28410" windowHeight="20415" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="199">
   <si>
     <t>Medtronic</t>
   </si>
@@ -597,6 +597,54 @@
   </si>
   <si>
     <t>GMED</t>
+  </si>
+  <si>
+    <t>Immunai</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>215m</t>
+  </si>
+  <si>
+    <t>Series B</t>
+  </si>
+  <si>
+    <t>Koch, 8VC</t>
+  </si>
+  <si>
+    <t>Twin Health</t>
+  </si>
+  <si>
+    <t>CGM</t>
+  </si>
+  <si>
+    <t>155m Series C</t>
+  </si>
+  <si>
+    <t>Casana</t>
+  </si>
+  <si>
+    <t>Zephyr AI</t>
+  </si>
+  <si>
+    <t>18.5m</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Imagene AI</t>
+  </si>
+  <si>
+    <t>Series A</t>
+  </si>
+  <si>
+    <t>MoleculeMind</t>
+  </si>
+  <si>
+    <t>15m</t>
   </si>
 </sst>
 </file>
@@ -698,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -741,6 +789,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1303,13 +1354,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:K58"/>
+  <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1991,7 +2042,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2002,7 +2053,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2013,7 +2064,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -2024,7 +2075,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2035,7 +2086,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -2046,7 +2097,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>149</v>
       </c>
@@ -2054,7 +2105,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>162</v>
       </c>
@@ -2062,7 +2113,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -2073,7 +2124,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -2084,7 +2135,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -2093,6 +2144,25 @@
       </c>
       <c r="C58" s="2" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2176,13 +2246,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X22"/>
+  <dimension ref="A2:X32"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2459,7 +2529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2470,7 +2540,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2481,7 +2551,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>164</v>
       </c>
@@ -2489,7 +2559,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>168</v>
       </c>
@@ -2497,12 +2567,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -2511,6 +2581,59 @@
       </c>
       <c r="C22" s="2" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29">
+        <v>2018</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F7338B-BDC7-4153-9629-F1019FD5EB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB504F5-4FD1-4D41-9C18-B2EC08E8D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47700" yWindow="1185" windowWidth="28410" windowHeight="20415" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="21780" yWindow="1035" windowWidth="24480" windowHeight="20415" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="201">
   <si>
     <t>Medtronic</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>15m</t>
+  </si>
+  <si>
+    <t>Protai</t>
+  </si>
+  <si>
+    <t>12m</t>
   </si>
 </sst>
 </file>
@@ -2246,13 +2252,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X32"/>
+  <dimension ref="A2:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2607,6 +2613,9 @@
       <c r="B30" t="s">
         <v>192</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="E30" t="s">
         <v>193</v>
       </c>
@@ -2618,6 +2627,9 @@
       <c r="B31" t="s">
         <v>195</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="E31" t="s">
         <v>193</v>
       </c>
@@ -2629,10 +2641,27 @@
       <c r="B32" t="s">
         <v>197</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="E32" t="s">
         <v>198</v>
       </c>
       <c r="F32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" t="s">
         <v>194</v>
       </c>
     </row>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB504F5-4FD1-4D41-9C18-B2EC08E8D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12041DDB-8F39-AC47-8EB0-9B14C73E07FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="1035" windowWidth="24480" windowHeight="20415" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="1280" yWindow="-17700" windowWidth="22080" windowHeight="13520" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -1043,9 +1043,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1083,7 +1083,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1189,7 +1189,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1331,7 +1331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1343,9 +1343,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>152</v>
       </c>
@@ -1363,21 +1363,21 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
         <v>83</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>132</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>149</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>162</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>188</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>191</v>
       </c>
@@ -2196,13 +2196,13 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>122</v>
       </c>
@@ -2255,20 +2255,20 @@
   <dimension ref="A2:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>164</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>168</v>
       </c>
@@ -2573,12 +2573,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>183</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>192</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>195</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>197</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>199</v>
       </c>
@@ -2684,13 +2684,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>156</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>159</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>170</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>172</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12041DDB-8F39-AC47-8EB0-9B14C73E07FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70A86A5-9E40-48D2-B1EA-C415452E8FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="-17700" windowWidth="22080" windowHeight="13520" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-26670" yWindow="1095" windowWidth="26490" windowHeight="19650" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="203">
   <si>
     <t>Medtronic</t>
   </si>
@@ -651,6 +651,12 @@
   </si>
   <si>
     <t>12m</t>
+  </si>
+  <si>
+    <t>Grail</t>
+  </si>
+  <si>
+    <t>GRAL</t>
   </si>
 </sst>
 </file>
@@ -1343,9 +1349,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>152</v>
       </c>
@@ -1369,15 +1375,15 @@
       <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1622,7 +1628,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1655,7 +1661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>83</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>132</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>149</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>162</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>188</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>191</v>
       </c>
@@ -2196,13 +2202,13 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2237,7 +2243,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>122</v>
       </c>
@@ -2258,17 +2264,18 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2339,7 +2346,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2375,7 +2382,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2391,7 +2398,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2402,7 +2409,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2418,7 +2425,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2434,7 +2441,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2445,7 +2452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -2456,7 +2463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2472,7 +2479,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2483,7 +2490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2494,7 +2501,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -2505,7 +2512,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2516,7 +2523,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2527,7 +2534,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -2535,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2546,7 +2553,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>164</v>
       </c>
@@ -2565,7 +2572,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>168</v>
       </c>
@@ -2573,12 +2580,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -2589,7 +2596,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>183</v>
       </c>
@@ -2609,7 +2624,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>192</v>
       </c>
@@ -2623,7 +2638,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>195</v>
       </c>
@@ -2637,7 +2652,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>197</v>
       </c>
@@ -2651,7 +2666,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>199</v>
       </c>
@@ -2668,6 +2683,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2684,13 +2700,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2701,7 +2717,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>156</v>
       </c>
@@ -2712,7 +2728,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>159</v>
       </c>
@@ -2720,7 +2736,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>170</v>
       </c>
@@ -2728,7 +2744,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>172</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70A86A5-9E40-48D2-B1EA-C415452E8FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5AA33-C4A9-4BD7-B44D-F1AC3BFE496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26670" yWindow="1095" windowWidth="26490" windowHeight="19650" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-35625" yWindow="345" windowWidth="35025" windowHeight="20160" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="207">
   <si>
     <t>Medtronic</t>
   </si>
@@ -657,6 +657,18 @@
   </si>
   <si>
     <t>GRAL</t>
+  </si>
+  <si>
+    <t>Tempus</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>Mimedix</t>
+  </si>
+  <si>
+    <t>MDXG</t>
   </si>
 </sst>
 </file>
@@ -1366,13 +1378,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:K65"/>
+  <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1881,7 +1893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -1892,7 +1904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1903,7 +1915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1914,266 +1926,277 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>83</v>
-      </c>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="17" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>188</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E65" s="1">
         <v>1000</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="H65" s="19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2199,7 +2222,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2258,13 +2281,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X33"/>
+  <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2453,14 +2476,11 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -2468,37 +2488,37 @@
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2506,10 +2526,10 @@
         <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2517,10 +2537,10 @@
         <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2528,29 +2548,29 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2558,89 +2578,86 @@
         <v>83</v>
       </c>
       <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29">
-        <v>2018</v>
-      </c>
-      <c r="E29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D30">
+        <v>2018</v>
+      </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>186</v>
+      </c>
+      <c r="G30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -2649,41 +2666,55 @@
         <v>193</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" t="s">
         <v>200</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5AA33-C4A9-4BD7-B44D-F1AC3BFE496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF66E44-9D5A-4B9F-860D-3273724BA056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35625" yWindow="345" windowWidth="35025" windowHeight="20160" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-30405" yWindow="555" windowWidth="29955" windowHeight="20700" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="208">
   <si>
     <t>Medtronic</t>
   </si>
@@ -669,6 +670,9 @@
   </si>
   <si>
     <t>MDXG</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -770,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -817,6 +821,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1051,6 +1057,40 @@
         <row r="6">
           <cell r="H6">
             <v>30260</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>51.630726000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>411</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>2409</v>
           </cell>
         </row>
       </sheetData>
@@ -1380,11 +1420,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2283,11 +2323,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2565,7 +2605,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -2573,7 +2613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2584,18 +2624,43 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="20">
+        <v>196.97</v>
+      </c>
+      <c r="E19" s="21">
+        <f>+D19*H19</f>
+        <v>10169.70410022</v>
+      </c>
+      <c r="F19" s="21">
+        <f>[8]Main!$L$5-[8]Main!$L$6</f>
+        <v>-1998</v>
+      </c>
+      <c r="G19" s="21">
+        <f>+E19-F19</f>
+        <v>12167.70410022</v>
+      </c>
+      <c r="H19" s="21">
+        <f>+[8]Main!$L$3</f>
+        <v>51.630726000000003</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" s="16">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>164</v>
       </c>
@@ -2603,7 +2668,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>168</v>
       </c>
@@ -2611,12 +2676,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -2627,7 +2692,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>201</v>
       </c>
@@ -2635,7 +2700,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>183</v>
       </c>
@@ -2655,7 +2720,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>192</v>
       </c>
@@ -2669,7 +2734,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>195</v>
       </c>
@@ -2715,6 +2780,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
     <hyperlink ref="B24" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF66E44-9D5A-4B9F-860D-3273724BA056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBEEE0B-D884-46D5-8B42-5F311672CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30405" yWindow="555" windowWidth="29955" windowHeight="20700" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-26985" yWindow="1950" windowWidth="26985" windowHeight="17820" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="210">
   <si>
     <t>Medtronic</t>
   </si>
@@ -673,6 +674,12 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>ESTA</t>
+  </si>
+  <si>
+    <t>Establishment Labs</t>
   </si>
 </sst>
 </file>
@@ -1100,6 +1107,28 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>27.943534</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1420,11 +1449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1433,6 +1462,7 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
     <col min="4" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2106,7 +2136,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2117,7 +2147,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2128,7 +2158,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -2138,8 +2168,9 @@
       <c r="C51" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2149,8 +2180,9 @@
       <c r="C52" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -2160,8 +2192,14 @@
       <c r="C53" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="1">
+        <v>134.15</v>
+      </c>
+      <c r="E53" s="4">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -2171,53 +2209,97 @@
       <c r="C54" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="1">
+        <v>24.85</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="3">
+        <v>43</v>
+      </c>
+      <c r="E55" s="4">
+        <f>+D55*H55</f>
+        <v>1201.571962</v>
+      </c>
+      <c r="G55" s="4">
+        <f>+E55-F55</f>
+        <v>1201.571962</v>
+      </c>
+      <c r="H55" s="4">
+        <f>[9]Main!$L$3</f>
+        <v>27.943534</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J55" s="16">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D57" s="1">
+        <v>13.59</v>
+      </c>
+      <c r="E57" s="4">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2323,7 +2405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBEEE0B-D884-46D5-8B42-5F311672CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72A1896-1F38-274B-8302-BC39254339BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26985" yWindow="1950" windowWidth="26985" windowHeight="17820" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20800" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -1045,6 +1045,30 @@
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>27.943534</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -1073,7 +1097,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1102,28 +1126,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>27.943534</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1430,9 +1432,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>152</v>
       </c>
@@ -1449,23 +1451,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1566,7 +1568,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1596,7 +1598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1695,7 +1697,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1710,7 +1712,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1732,7 +1734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1754,7 +1756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1765,7 +1767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1776,7 +1778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1842,7 +1844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1853,7 +1855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1875,7 +1877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -1908,7 +1910,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1919,7 +1921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1996,7 +1998,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>205</v>
       </c>
@@ -2007,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2051,7 +2053,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2062,7 +2064,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="17" t="s">
         <v>83</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -2106,7 +2108,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -2128,7 +2130,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>132</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2158,7 +2160,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -2170,7 +2172,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2182,7 +2184,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -2199,7 +2201,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>209</v>
       </c>
@@ -2235,7 +2237,7 @@
         <v>1201.571962</v>
       </c>
       <c r="H55" s="4">
-        <f>[9]Main!$L$3</f>
+        <f>[7]Main!$L$3</f>
         <v>27.943534</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -2245,7 +2247,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>149</v>
       </c>
@@ -2254,7 +2256,7 @@
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>162</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -2280,7 +2282,7 @@
       </c>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -2292,7 +2294,7 @@
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>188</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>191</v>
       </c>
@@ -2347,13 +2349,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2372,7 +2374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2388,7 +2390,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>122</v>
       </c>
@@ -2405,22 +2407,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="2"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2509,7 +2511,7 @@
         <v>212067.52935135999</v>
       </c>
       <c r="F3" s="4">
-        <f>+[7]Main!$H$5-[7]Main!$H$6</f>
+        <f>+[8]Main!$H$5-[8]Main!$H$6</f>
         <v>-28372</v>
       </c>
       <c r="G3" s="4">
@@ -2517,7 +2519,7 @@
         <v>240439.52935135999</v>
       </c>
       <c r="H3" s="4">
-        <f>+[7]Main!$H$3</f>
+        <f>+[8]Main!$H$3</f>
         <v>391.78896200000003</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2527,7 +2529,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2543,7 +2545,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2570,7 +2572,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2586,7 +2588,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>203</v>
       </c>
@@ -2605,7 +2607,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2616,7 +2618,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2632,7 +2634,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -2654,7 +2656,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2665,7 +2667,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -2695,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>10169.70410022</v>
       </c>
       <c r="F19" s="21">
-        <f>[8]Main!$L$5-[8]Main!$L$6</f>
+        <f>[9]Main!$L$5-[9]Main!$L$6</f>
         <v>-1998</v>
       </c>
       <c r="G19" s="21">
@@ -2732,7 +2734,7 @@
         <v>12167.70410022</v>
       </c>
       <c r="H19" s="21">
-        <f>+[8]Main!$L$3</f>
+        <f>+[9]Main!$L$3</f>
         <v>51.630726000000003</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -2742,7 +2744,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>164</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>168</v>
       </c>
@@ -2758,12 +2760,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>201</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>183</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>192</v>
       </c>
@@ -2816,7 +2818,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>195</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>197</v>
       </c>
@@ -2844,7 +2846,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>199</v>
       </c>
@@ -2879,13 +2881,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2896,7 +2898,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>156</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>159</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>170</v>
       </c>
@@ -2923,7 +2925,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>172</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72A1896-1F38-274B-8302-BC39254339BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E7697-1759-43C9-82EA-BCE675C102F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20800" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="209">
   <si>
     <t>Medtronic</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>SO</t>
-  </si>
-  <si>
-    <t>Q322</t>
   </si>
   <si>
     <t>Freenome</t>
@@ -853,6 +850,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Models"/>
@@ -866,16 +866,16 @@
         </row>
         <row r="5">
           <cell r="L5">
-            <v>10671</v>
+            <v>8096</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>16414</v>
+            <v>14754</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1432,9 +1432,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>152</v>
       </c>
@@ -1451,23 +1451,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1509,66 +1509,66 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1">
-        <v>112.33</v>
+      <c r="D3" s="3">
+        <v>116</v>
       </c>
       <c r="E3" s="4">
         <f>+D3*H3</f>
-        <v>195855.64237041</v>
+        <v>202254.55813200001</v>
       </c>
       <c r="F3" s="4">
         <f>+[1]Main!$L$5-[1]Main!$L$6</f>
-        <v>-5743</v>
+        <v>-6658</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G8" si="0">+E3-F3</f>
-        <v>201598.64237041</v>
+        <v>208912.55813200001</v>
       </c>
       <c r="H3" s="4">
         <f>+[1]Main!$L$3</f>
         <v>1743.5737770000001</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="J3" s="16">
-        <v>44932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>45580</v>
+      </c>
+      <c r="K3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>79.069999999999993</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>478.47</v>
       </c>
       <c r="E4" s="4">
-        <f>+D4*[2]Main!$M$3</f>
-        <v>105196.60259155999</v>
+        <f>+D4*[5]Main!$K$3</f>
+        <v>171749.92181817</v>
       </c>
       <c r="F4" s="4">
-        <f>+[2]Main!$M$5-[2]Main!$M$6</f>
-        <v>-13541</v>
+        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
+        <v>8401.7999999999993</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>118737.60259155999</v>
+        <f>+E4-F4</f>
+        <v>163348.12181817001</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="16">
-        <v>45014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1579,95 +1579,98 @@
         <v>8</v>
       </c>
       <c r="D5" s="3">
-        <v>198.5</v>
+        <v>358.98</v>
       </c>
       <c r="E5" s="4">
         <f>+D5*[3]Main!$L$3</f>
-        <v>75063.584880000009</v>
+        <v>135749.75163840002</v>
       </c>
       <c r="F5" s="4">
         <f>+[3]Main!$L$5-[3]Main!$L$6</f>
         <v>-12569</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>87632.584880000009</v>
+        <f>+E5-F5</f>
+        <v>148318.75163840002</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>89.84</v>
+      </c>
+      <c r="E6" s="4">
+        <f>+D6*[2]Main!$M$3</f>
+        <v>119525.26592672001</v>
+      </c>
+      <c r="F6" s="4">
+        <f>+[2]Main!$M$5-[2]Main!$M$6</f>
+        <v>-13541</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>133066.26592671999</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="16">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3">
-        <v>245</v>
-      </c>
-      <c r="E6" s="4">
-        <f>+D6*H6</f>
-        <v>69555.902289999998</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D7" s="3">
+        <v>241.82</v>
+      </c>
+      <c r="E7" s="4">
+        <f>+D7*H7</f>
+        <v>68653.095068439987</v>
+      </c>
+      <c r="F7" s="4">
         <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>-15711</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>85266.902289999998</v>
-      </c>
-      <c r="H6" s="4">
+        <v>84364.095068439987</v>
+      </c>
+      <c r="H7" s="4">
         <f>+[4]Main!$M$3</f>
         <v>283.90164199999998</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="I7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="16">
         <v>44961</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>1897</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>224.75</v>
-      </c>
-      <c r="E7" s="4">
-        <f>+D7*[5]Main!$K$3</f>
-        <v>80675.475847249996</v>
-      </c>
-      <c r="F7" s="4">
-        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
-        <v>8401.7999999999993</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>72273.675847249993</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1677,12 +1680,12 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1">
-        <v>103.77</v>
+      <c r="D8" s="3">
+        <v>68.900000000000006</v>
       </c>
       <c r="E8" s="4">
         <f>+D8*[6]Main!$L$3</f>
-        <v>64519.177644720003</v>
+        <v>42838.694610400009</v>
       </c>
       <c r="F8" s="4">
         <f>+[6]Main!$L$5-[6]Main!$L$6</f>
@@ -1690,14 +1693,14 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>61995.477644720006</v>
+        <v>40314.994610400012</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1712,7 +1715,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1800,18 +1803,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
       <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1998,18 +2001,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D36" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>83</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>132</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -2172,7 +2175,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2184,7 +2187,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -2218,12 +2221,12 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D55" s="3">
         <v>43</v>
@@ -2241,13 +2244,13 @@
         <v>27.943534</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J55" s="16">
         <v>45568</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>149</v>
       </c>
@@ -2256,12 +2259,12 @@
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D57" s="1">
         <v>13.59</v>
@@ -2270,68 +2273,68 @@
         <v>790</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
       <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
       <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
       <c r="B60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E65" s="1">
         <v>1000</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="H65" s="19" t="s">
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{EE78F7FD-1E0D-4B3C-B2D4-375FAB09E5B5}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{EE78F7FD-1E0D-4B3C-B2D4-375FAB09E5B5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{6A4240A9-D029-4FD3-B05B-8C1028FD4219}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{277E0E83-6CCF-41D9-932E-831CCB9C271F}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{8C8CFEF4-EC99-4BD1-8542-5F27AB3FBF8E}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{33504D51-2E3F-4370-BCBD-318C828A1903}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{33504D51-2E3F-4370-BCBD-318C828A1903}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
@@ -2349,13 +2352,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2390,7 +2393,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>122</v>
       </c>
@@ -2407,22 +2410,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="2"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2545,7 +2548,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2572,7 +2575,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2588,7 +2591,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2599,15 +2602,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2634,7 +2637,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2738,126 +2741,126 @@
         <v>51.630726000000003</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J19" s="16">
         <v>45566</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
       <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D30">
         <v>2018</v>
       </c>
       <c r="E30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" t="s">
         <v>185</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>186</v>
       </c>
-      <c r="G30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>193</v>
       </c>
-      <c r="F31" t="s">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+      <c r="C32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" t="s">
         <v>193</v>
       </c>
-      <c r="F32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>198</v>
       </c>
-      <c r="F33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+      <c r="C34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" t="s">
-        <v>200</v>
-      </c>
       <c r="F34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2881,13 +2884,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2895,42 +2898,42 @@
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3">
         <v>2014</v>
       </c>
       <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>159</v>
       </c>
-      <c r="D4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
         <v>170</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>172</v>
-      </c>
-      <c r="D6" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E7697-1759-43C9-82EA-BCE675C102F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917AC95A-A413-48E3-975C-260C8A826BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-45645" yWindow="2340" windowWidth="19845" windowHeight="16215" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="209">
   <si>
     <t>Medtronic</t>
   </si>
@@ -875,6 +876,40 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>31.049147999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>958.84500000000003</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -884,28 +919,25 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1330.423708</v>
+          <cell r="K3">
+            <v>358.95651099999998</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>10573</v>
+          <cell r="K5">
+            <v>8401.7999999999993</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>24114</v>
+          <cell r="K6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -954,6 +986,40 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1330.423708</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>10573</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>24114</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
@@ -971,37 +1037,6 @@
         <row r="6">
           <cell r="M6">
             <v>16456</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>358.95651099999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>8401.7999999999993</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1432,9 +1467,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>152</v>
       </c>
@@ -1455,19 +1490,19 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -1499,7 +1534,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1538,7 +1573,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1552,11 +1587,11 @@
         <v>478.47</v>
       </c>
       <c r="E4" s="4">
-        <f>+D4*[5]Main!$K$3</f>
+        <f>+D4*[2]Main!$K$3</f>
         <v>171749.92181817</v>
       </c>
       <c r="F4" s="4">
-        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
         <v>8401.7999999999993</v>
       </c>
       <c r="G4" s="4">
@@ -1568,7 +1603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1598,7 +1633,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1612,11 +1647,11 @@
         <v>89.84</v>
       </c>
       <c r="E6" s="4">
-        <f>+D6*[2]Main!$M$3</f>
+        <f>+D6*[4]Main!$M$3</f>
         <v>119525.26592672001</v>
       </c>
       <c r="F6" s="4">
-        <f>+[2]Main!$M$5-[2]Main!$M$6</f>
+        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>-13541</v>
       </c>
       <c r="G6" s="4">
@@ -1631,7 +1666,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1649,7 +1684,7 @@
         <v>68653.095068439987</v>
       </c>
       <c r="F7" s="4">
-        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
+        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
         <v>-15711</v>
       </c>
       <c r="G7" s="4">
@@ -1657,7 +1692,7 @@
         <v>84364.095068439987</v>
       </c>
       <c r="H7" s="4">
-        <f>+[4]Main!$M$3</f>
+        <f>+[5]Main!$M$3</f>
         <v>283.90164199999998</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1670,7 +1705,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1700,7 +1735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1715,7 +1750,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1726,7 +1761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1737,7 +1772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1748,7 +1783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1759,7 +1794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1770,7 +1805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1781,7 +1816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1792,7 +1827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1803,7 +1838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1814,7 +1849,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1825,7 +1860,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1836,7 +1871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1847,7 +1882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1858,7 +1893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1869,7 +1904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1880,7 +1915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1891,7 +1926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1902,7 +1937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -1913,7 +1948,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1924,7 +1959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1935,7 +1970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1946,7 +1981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -1957,7 +1992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -1968,7 +2003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -1979,7 +2014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1990,7 +2025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -2001,7 +2036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>204</v>
       </c>
@@ -2012,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2023,7 +2058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2034,7 +2069,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2045,7 +2080,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2056,7 +2091,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2067,7 +2102,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>83</v>
       </c>
@@ -2078,7 +2113,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2089,7 +2124,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2100,7 +2135,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -2111,7 +2146,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2122,7 +2157,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -2133,7 +2168,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>132</v>
       </c>
@@ -2141,7 +2176,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2152,7 +2187,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2163,7 +2198,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -2175,7 +2210,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2187,7 +2222,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -2204,7 +2239,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -2221,7 +2256,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>208</v>
       </c>
@@ -2250,7 +2285,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>149</v>
       </c>
@@ -2259,7 +2294,7 @@
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>161</v>
       </c>
@@ -2273,7 +2308,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -2285,7 +2320,7 @@
       </c>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -2297,7 +2332,7 @@
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -2308,7 +2343,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>187</v>
       </c>
@@ -2322,7 +2357,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>190</v>
       </c>
@@ -2352,13 +2387,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2366,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2377,7 +2412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2393,7 +2428,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>122</v>
       </c>
@@ -2414,18 +2449,18 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2496,7 +2531,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2532,7 +2567,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2548,7 +2583,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2559,7 +2594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2575,7 +2610,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2591,7 +2626,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2602,7 +2637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>202</v>
       </c>
@@ -2610,7 +2645,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2621,7 +2656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2637,7 +2672,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2648,7 +2683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -2659,7 +2694,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2670,7 +2705,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2681,7 +2716,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2692,7 +2727,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -2700,7 +2735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2711,7 +2746,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2747,7 +2782,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>163</v>
       </c>
@@ -2755,7 +2790,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>167</v>
       </c>
@@ -2763,12 +2798,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -2779,15 +2814,40 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>14.06</v>
+      </c>
+      <c r="E24" s="21">
+        <f>+D24*H24</f>
+        <v>436.55102088000001</v>
+      </c>
+      <c r="F24" s="21">
+        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
+        <v>958.84500000000003</v>
+      </c>
+      <c r="G24" s="21">
+        <f>+E24-F24</f>
+        <v>-522.29397912000002</v>
+      </c>
+      <c r="H24" s="21">
+        <f>+[10]Main!$K$3</f>
+        <v>31.049147999999999</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="16">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>182</v>
       </c>
@@ -2807,7 +2867,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>191</v>
       </c>
@@ -2821,7 +2881,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>194</v>
       </c>
@@ -2835,7 +2895,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>196</v>
       </c>
@@ -2849,7 +2909,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>198</v>
       </c>
@@ -2884,13 +2944,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2901,7 +2961,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>155</v>
       </c>
@@ -2912,7 +2972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>158</v>
       </c>
@@ -2920,7 +2980,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -2928,7 +2988,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>171</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917AC95A-A413-48E3-975C-260C8A826BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8354FACE-F531-4EDB-A577-BB608FCEB1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45645" yWindow="2340" windowWidth="19845" windowHeight="16215" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-25380" yWindow="2280" windowWidth="25215" windowHeight="16575" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="213">
   <si>
     <t>Medtronic</t>
   </si>
@@ -678,6 +679,18 @@
   </si>
   <si>
     <t>Establishment Labs</t>
+  </si>
+  <si>
+    <t>Natera</t>
+  </si>
+  <si>
+    <t>NTRA</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Arkana</t>
   </si>
 </sst>
 </file>
@@ -895,6 +908,40 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="L3">
+            <v>51.630726000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>411</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>2409</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="K3">
             <v>31.049147999999999</v>
           </cell>
@@ -910,7 +957,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1146,17 +1193,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>51.630726000000003</v>
+            <v>132.020816</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>411</v>
+            <v>892.84400000000005</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>2409</v>
+            <v>367.01799999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -1486,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2443,13 +2490,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X34"/>
+  <dimension ref="A2:X35"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2747,103 +2794,136 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
       <c r="B19" s="5" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="20">
-        <v>196.97</v>
+        <v>210</v>
+      </c>
+      <c r="D19">
+        <v>168.51</v>
       </c>
       <c r="E19" s="21">
         <f>+D19*H19</f>
-        <v>10169.70410022</v>
+        <v>22246.827704159998</v>
       </c>
       <c r="F19" s="21">
-        <f>[9]Main!$L$5-[9]Main!$L$6</f>
-        <v>-1998</v>
+        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
+        <v>525.82600000000002</v>
       </c>
       <c r="G19" s="21">
         <f>+E19-F19</f>
-        <v>12167.70410022</v>
+        <v>21721.001704159997</v>
       </c>
       <c r="H19" s="21">
         <f>+[9]Main!$L$3</f>
+        <v>132.020816</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="16">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="20">
+        <v>196.97</v>
+      </c>
+      <c r="E20" s="21">
+        <f>+D20*H20</f>
+        <v>10169.70410022</v>
+      </c>
+      <c r="F20" s="21">
+        <f>[10]Main!$L$5-[10]Main!$L$6</f>
+        <v>-1998</v>
+      </c>
+      <c r="G20" s="21">
+        <f>+E20-F20</f>
+        <v>12167.70410022</v>
+      </c>
+      <c r="H20" s="21">
+        <f>+[10]Main!$L$3</f>
         <v>51.630726000000003</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J20" s="16">
         <v>45566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>14.06</v>
       </c>
-      <c r="E24" s="21">
-        <f>+D24*H24</f>
+      <c r="E25" s="21">
+        <f>+D25*H25</f>
         <v>436.55102088000001</v>
       </c>
-      <c r="F24" s="21">
-        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
+      <c r="F25" s="21">
+        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
         <v>958.84500000000003</v>
       </c>
-      <c r="G24" s="21">
-        <f>+E24-F24</f>
+      <c r="G25" s="21">
+        <f>+E25-F25</f>
         <v>-522.29397912000002</v>
       </c>
-      <c r="H24" s="21">
-        <f>+[10]Main!$K$3</f>
+      <c r="H25" s="21">
+        <f>+[11]Main!$K$3</f>
         <v>31.049147999999999</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J25" s="16">
         <v>45582</v>
       </c>
     </row>
@@ -2923,11 +3003,17 @@
         <v>193</v>
       </c>
     </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
-    <hyperlink ref="B24" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
+    <hyperlink ref="B25" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8354FACE-F531-4EDB-A577-BB608FCEB1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E5875-0D2C-4142-BED0-E515554E7C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25380" yWindow="2280" windowWidth="25215" windowHeight="16575" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-19005" yWindow="1530" windowWidth="18960" windowHeight="18495" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="216">
   <si>
     <t>Medtronic</t>
   </si>
@@ -691,6 +691,15 @@
   </si>
   <si>
     <t>Arkana</t>
+  </si>
+  <si>
+    <t>WGS</t>
+  </si>
+  <si>
+    <t>GeneDx</t>
+  </si>
+  <si>
+    <t>PrognomiQ</t>
   </si>
 </sst>
 </file>
@@ -2490,13 +2499,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X35"/>
+  <dimension ref="A2:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2776,194 +2785,191 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>168.51</v>
       </c>
-      <c r="E19" s="21">
-        <f>+D19*H19</f>
+      <c r="E20" s="21">
+        <f>+D20*H20</f>
         <v>22246.827704159998</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F20" s="21">
         <f>+[9]Main!$L$5-[9]Main!$L$6</f>
         <v>525.82600000000002</v>
       </c>
-      <c r="G19" s="21">
-        <f>+E19-F19</f>
+      <c r="G20" s="21">
+        <f>+E20-F20</f>
         <v>21721.001704159997</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H20" s="21">
         <f>+[9]Main!$L$3</f>
         <v>132.020816</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J20" s="16">
         <v>45632</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D21" s="20">
         <v>196.97</v>
       </c>
-      <c r="E20" s="21">
-        <f>+D20*H20</f>
+      <c r="E21" s="21">
+        <f>+D21*H21</f>
         <v>10169.70410022</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F21" s="21">
         <f>[10]Main!$L$5-[10]Main!$L$6</f>
         <v>-1998</v>
       </c>
-      <c r="G20" s="21">
-        <f>+E20-F20</f>
+      <c r="G21" s="21">
+        <f>+E21-F21</f>
         <v>12167.70410022</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H21" s="21">
         <f>+[10]Main!$L$3</f>
         <v>51.630726000000003</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="16">
         <v>45566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>14.06</v>
       </c>
-      <c r="E25" s="21">
-        <f>+D25*H25</f>
+      <c r="E26" s="21">
+        <f>+D26*H26</f>
         <v>436.55102088000001</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F26" s="21">
         <f>+[11]Main!$K$5-[11]Main!$K$6</f>
         <v>958.84500000000003</v>
       </c>
-      <c r="G25" s="21">
-        <f>+E25-F25</f>
+      <c r="G26" s="21">
+        <f>+E26-F26</f>
         <v>-522.29397912000002</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H26" s="21">
         <f>+[11]Main!$K$3</f>
         <v>31.049147999999999</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J26" s="16">
         <v>45582</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30">
-        <v>2018</v>
-      </c>
-      <c r="E30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="D31">
+        <v>2018</v>
+      </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="G31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>183</v>
@@ -2972,32 +2978,32 @@
         <v>192</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
         <v>193</v>
@@ -3005,15 +3011,34 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
-    <hyperlink ref="B25" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
-    <hyperlink ref="B20" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
-    <hyperlink ref="B19" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E5875-0D2C-4142-BED0-E515554E7C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91151C26-E4DB-4907-A761-D45FA2226FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19005" yWindow="1530" windowWidth="18960" windowHeight="18495" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-28290" yWindow="2235" windowWidth="27045" windowHeight="17700" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="218">
   <si>
     <t>Medtronic</t>
   </si>
@@ -700,6 +701,12 @@
   </si>
   <si>
     <t>PrognomiQ</t>
+  </si>
+  <si>
+    <t>MBOT</t>
+  </si>
+  <si>
+    <t>Microbot Medical</t>
   </si>
 </sst>
 </file>
@@ -967,6 +974,38 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>16.932341000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>4.3380000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1542,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1555,7 +1594,7 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
     <col min="4" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2397,6 +2436,39 @@
       </c>
       <c r="C60" s="2" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="E61" s="4">
+        <f>+D61*H61</f>
+        <v>20.14948579</v>
+      </c>
+      <c r="F61" s="4">
+        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
+        <v>4.3380000000000001</v>
+      </c>
+      <c r="G61" s="4">
+        <f>+E61-F61</f>
+        <v>15.811485789999999</v>
+      </c>
+      <c r="H61" s="4">
+        <f>+[12]Main!$L$3</f>
+        <v>16.932341000000001</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J61" s="16">
+        <v>45656</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -2426,9 +2498,10 @@
     <hyperlink ref="B4" r:id="rId4" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{8C8CFEF4-EC99-4BD1-8542-5F27AB3FBF8E}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{33504D51-2E3F-4370-BCBD-318C828A1903}"/>
+    <hyperlink ref="B61" r:id="rId7" xr:uid="{E6990DD6-A42D-4691-8BC6-541575837CB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2501,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91151C26-E4DB-4907-A761-D45FA2226FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6620FC9E-EBC4-4B46-846B-81CF590B0D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28290" yWindow="2235" windowWidth="27045" windowHeight="17700" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="11210" yWindow="3730" windowWidth="22530" windowHeight="16580" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
   <si>
     <t>Medtronic</t>
   </si>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>Microbot Medical</t>
+  </si>
+  <si>
+    <t>Inari</t>
+  </si>
+  <si>
+    <t>NARI</t>
   </si>
 </sst>
 </file>
@@ -925,17 +931,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>51.630726000000003</v>
+            <v>132.020816</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>411</v>
+            <v>892.84400000000005</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>2409</v>
+            <v>367.01799999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -958,18 +964,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>31.049147999999999</v>
+          <cell r="L3">
+            <v>51.630726000000003</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>958.84500000000003</v>
+          <cell r="L5">
+            <v>411</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="L6">
+            <v>2409</v>
           </cell>
         </row>
       </sheetData>
@@ -987,25 +993,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>16.932341000000001</v>
+          <cell r="K3">
+            <v>31.049147999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>4.3380000000000001</v>
+          <cell r="K5">
+            <v>958.84500000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
+          <cell r="K6">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1199,6 +1207,38 @@
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>16.932341000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>4.3380000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -1218,40 +1258,6 @@
         <row r="6">
           <cell r="H6">
             <v>30260</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>132.020816</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>892.84400000000005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>367.01799999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -1562,9 +1568,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>152</v>
       </c>
@@ -1579,25 +1585,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:K66"/>
+  <dimension ref="A2:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1845,7 +1851,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1955,7 +1961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -2131,7 +2137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>204</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>83</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>132</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -2305,7 +2311,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2317,7 +2323,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -2351,142 +2357,154 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" s="3">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D56" s="3">
         <v>43</v>
       </c>
-      <c r="E55" s="4">
-        <f>+D55*H55</f>
+      <c r="E56" s="4">
+        <f>+D56*H56</f>
         <v>1201.571962</v>
       </c>
-      <c r="G55" s="4">
-        <f>+E55-F55</f>
+      <c r="G56" s="4">
+        <f>+E56-F56</f>
         <v>1201.571962</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="4">
         <f>[7]Main!$L$3</f>
         <v>27.943534</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J56" s="16">
         <v>45568</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D58" s="1">
         <v>13.59</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="4">
         <v>790</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
         <v>176</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="5" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D62" s="3">
         <v>1.19</v>
       </c>
-      <c r="E61" s="4">
-        <f>+D61*H61</f>
+      <c r="E62" s="4">
+        <f>+D62*H62</f>
         <v>20.14948579</v>
       </c>
-      <c r="F61" s="4">
-        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
+      <c r="F62" s="4">
+        <f>+[8]Main!$L$5-[8]Main!$L$6</f>
         <v>4.3380000000000001</v>
       </c>
-      <c r="G61" s="4">
-        <f>+E61-F61</f>
+      <c r="G62" s="4">
+        <f>+E62-F62</f>
         <v>15.811485789999999</v>
       </c>
-      <c r="H61" s="4">
-        <f>+[12]Main!$L$3</f>
+      <c r="H62" s="4">
+        <f>+[8]Main!$L$3</f>
         <v>16.932341000000001</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J62" s="16">
         <v>45656</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>187</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E66" s="1">
         <v>1000</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H66" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2498,7 +2516,7 @@
     <hyperlink ref="B4" r:id="rId4" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{8C8CFEF4-EC99-4BD1-8542-5F27AB3FBF8E}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{33504D51-2E3F-4370-BCBD-318C828A1903}"/>
-    <hyperlink ref="B61" r:id="rId7" xr:uid="{E6990DD6-A42D-4691-8BC6-541575837CB2}"/>
+    <hyperlink ref="B62" r:id="rId7" xr:uid="{E6990DD6-A42D-4691-8BC6-541575837CB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
@@ -2516,13 +2534,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2530,7 +2548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2541,7 +2559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2557,7 +2575,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>122</v>
       </c>
@@ -2581,15 +2599,15 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2660,7 +2678,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2678,7 +2696,7 @@
         <v>212067.52935135999</v>
       </c>
       <c r="F3" s="4">
-        <f>+[8]Main!$H$5-[8]Main!$H$6</f>
+        <f>+[9]Main!$H$5-[9]Main!$H$6</f>
         <v>-28372</v>
       </c>
       <c r="G3" s="4">
@@ -2686,7 +2704,7 @@
         <v>240439.52935135999</v>
       </c>
       <c r="H3" s="4">
-        <f>+[8]Main!$H$3</f>
+        <f>+[9]Main!$H$3</f>
         <v>391.78896200000003</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2696,7 +2714,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2712,7 +2730,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2723,7 +2741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2739,7 +2757,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2755,7 +2773,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2766,7 +2784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>202</v>
       </c>
@@ -2774,7 +2792,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2801,7 +2819,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2812,7 +2830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -2823,7 +2841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2845,7 +2863,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2856,7 +2874,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>214</v>
       </c>
@@ -2867,7 +2885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -2875,7 +2893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2886,7 +2904,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>209</v>
       </c>
@@ -2901,7 +2919,7 @@
         <v>22246.827704159998</v>
       </c>
       <c r="F20" s="21">
-        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>525.82600000000002</v>
       </c>
       <c r="G20" s="21">
@@ -2909,7 +2927,7 @@
         <v>21721.001704159997</v>
       </c>
       <c r="H20" s="21">
-        <f>+[9]Main!$L$3</f>
+        <f>+[10]Main!$L$3</f>
         <v>132.020816</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2919,7 +2937,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -2937,7 +2955,7 @@
         <v>10169.70410022</v>
       </c>
       <c r="F21" s="21">
-        <f>[10]Main!$L$5-[10]Main!$L$6</f>
+        <f>[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-1998</v>
       </c>
       <c r="G21" s="21">
@@ -2945,7 +2963,7 @@
         <v>12167.70410022</v>
       </c>
       <c r="H21" s="21">
-        <f>+[10]Main!$L$3</f>
+        <f>+[11]Main!$L$3</f>
         <v>51.630726000000003</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2955,7 +2973,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>163</v>
       </c>
@@ -2963,7 +2981,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>167</v>
       </c>
@@ -2971,12 +2989,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -2987,7 +3005,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>200</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>436.55102088000001</v>
       </c>
       <c r="F26" s="21">
-        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
+        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>958.84500000000003</v>
       </c>
       <c r="G26" s="21">
@@ -3010,7 +3028,7 @@
         <v>-522.29397912000002</v>
       </c>
       <c r="H26" s="21">
-        <f>+[11]Main!$K$3</f>
+        <f>+[12]Main!$K$3</f>
         <v>31.049147999999999</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -3020,7 +3038,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>182</v>
       </c>
@@ -3040,7 +3058,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>191</v>
       </c>
@@ -3054,7 +3072,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>194</v>
       </c>
@@ -3068,7 +3086,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>196</v>
       </c>
@@ -3082,7 +3100,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>198</v>
       </c>
@@ -3096,12 +3114,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>215</v>
       </c>
@@ -3128,13 +3146,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -3145,7 +3163,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>155</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>158</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -3172,7 +3190,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6620FC9E-EBC4-4B46-846B-81CF590B0D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB87454-1FC4-447B-B58F-59CD0F99B6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11210" yWindow="3730" windowWidth="22530" windowHeight="16580" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-46350" yWindow="1395" windowWidth="22410" windowHeight="14220" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="221">
   <si>
     <t>Medtronic</t>
   </si>
@@ -100,9 +100,6 @@
     <t>RGEN</t>
   </si>
   <si>
-    <t>Intuitive Surgical</t>
-  </si>
-  <si>
     <t>ISRG</t>
   </si>
   <si>
@@ -713,6 +710,12 @@
   </si>
   <si>
     <t>NARI</t>
+  </si>
+  <si>
+    <t>Intuitive</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -1022,6 +1025,9 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -1030,12 +1036,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>358.95651099999998</v>
+            <v>362</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>8401.7999999999993</v>
+            <v>8832</v>
           </cell>
         </row>
         <row r="6">
@@ -1568,11 +1574,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1588,24 +1594,24 @@
   <dimension ref="A2:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1617,33 +1623,33 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="3">
         <v>116</v>
@@ -1665,7 +1671,7 @@
         <v>1743.5737770000001</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J3" s="16">
         <v>45580</v>
@@ -1674,39 +1680,48 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>478.47</v>
+      <c r="D4" s="3">
+        <v>590.70000000000005</v>
       </c>
       <c r="E4" s="4">
         <f>+D4*[2]Main!$K$3</f>
-        <v>171749.92181817</v>
+        <v>213833.40000000002</v>
       </c>
       <c r="F4" s="4">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
-        <v>8401.7999999999993</v>
+        <v>8832</v>
       </c>
       <c r="G4" s="4">
         <f>+E4-F4</f>
-        <v>163348.12181817001</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>205001.40000000002</v>
+      </c>
+      <c r="H4" s="4">
+        <f>+[2]Main!$K$3</f>
+        <v>362</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="J4" s="16">
+        <v>45332</v>
+      </c>
+      <c r="K4">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -1731,12 +1746,12 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -1761,21 +1776,21 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" s="16">
         <v>45014</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D7" s="3">
         <v>241.82</v>
@@ -1797,7 +1812,7 @@
         <v>283.90164199999998</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="16">
         <v>44961</v>
@@ -1806,15 +1821,15 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="3">
         <v>68.900000000000006</v>
@@ -1833,247 +1848,247 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -2082,256 +2097,256 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D36" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="C42" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C46" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C47" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C53" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D53" s="1">
         <v>134.15</v>
@@ -2340,15 +2355,15 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D54" s="1">
         <v>24.85</v>
@@ -2357,24 +2372,24 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="D55" s="3">
         <v>79.349999999999994</v>
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D56" s="3">
         <v>43</v>
@@ -2392,27 +2407,27 @@
         <v>27.943534</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J56" s="16">
         <v>45568</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D58" s="1">
         <v>13.59</v>
@@ -2421,47 +2436,47 @@
         <v>790</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D62" s="3">
         <v>1.19</v>
@@ -2483,29 +2498,29 @@
         <v>16.932341000000001</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J62" s="16">
         <v>45656</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E66" s="1">
         <v>1000</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H66" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="19" t="s">
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2528,7 @@
     <hyperlink ref="B6" r:id="rId1" xr:uid="{EE78F7FD-1E0D-4B3C-B2D4-375FAB09E5B5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{6A4240A9-D029-4FD3-B05B-8C1028FD4219}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{277E0E83-6CCF-41D9-932E-831CCB9C271F}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
+    <hyperlink ref="B4" r:id="rId4" display="Intuitive Surgical" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{8C8CFEF4-EC99-4BD1-8542-5F27AB3FBF8E}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{33504D51-2E3F-4370-BCBD-318C828A1903}"/>
     <hyperlink ref="B62" r:id="rId7" xr:uid="{E6990DD6-A42D-4691-8BC6-541575837CB2}"/>
@@ -2534,40 +2549,40 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2575,12 +2590,12 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2599,17 +2614,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -2621,49 +2636,49 @@
         <v>10</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="S2" s="13">
         <v>2025</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U2" s="12">
         <v>2023</v>
@@ -2675,12 +2690,12 @@
         <v>2025</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -2708,21 +2723,21 @@
         <v>391.78896200000003</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" s="16">
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2730,26 +2745,26 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2757,15 +2772,15 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2773,39 +2788,39 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -2819,73 +2834,73 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="20">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -2893,23 +2908,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D20">
         <v>168.51</v>
@@ -2931,21 +2946,21 @@
         <v>132.020816</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J20" s="16">
         <v>45632</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D21" s="20">
         <v>196.97</v>
@@ -2967,50 +2982,50 @@
         <v>51.630726000000003</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J21" s="16">
         <v>45566</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D26">
         <v>14.06</v>
@@ -3032,96 +3047,96 @@
         <v>31.049147999999999</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J26" s="16">
         <v>45582</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D31">
         <v>2018</v>
       </c>
       <c r="E31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" t="s">
         <v>184</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>185</v>
       </c>
-      <c r="G31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>192</v>
       </c>
-      <c r="F32" t="s">
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C33" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" t="s">
         <v>192</v>
       </c>
-      <c r="F33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>197</v>
       </c>
-      <c r="F34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" t="s">
-        <v>199</v>
-      </c>
       <c r="F35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3146,56 +3161,56 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>2014</v>
       </c>
       <c r="D3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>158</v>
       </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
         <v>169</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>171</v>
-      </c>
-      <c r="D6" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB87454-1FC4-447B-B58F-59CD0F99B6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB84738D-9100-49E7-958E-D96A53F25B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46350" yWindow="1395" windowWidth="22410" windowHeight="14220" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -750,12 +750,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -817,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -866,6 +872,7 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1574,9 +1581,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>151</v>
       </c>
@@ -1593,23 +1600,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -1641,8 +1648,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1680,8 +1687,8 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1719,8 +1726,8 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1749,8 +1756,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1782,7 +1789,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1821,7 +1828,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1851,7 +1858,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1866,8 +1873,8 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B10" t="s">
@@ -1877,7 +1884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1888,7 +1895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1899,7 +1906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1910,7 +1917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1921,7 +1928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1943,7 +1950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1954,7 +1961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -1965,7 +1972,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1976,7 +1983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1987,7 +1994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1998,7 +2005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2009,7 +2016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2020,7 +2027,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -2031,7 +2038,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -2042,7 +2049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -2053,7 +2060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2075,7 +2082,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -2086,7 +2093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2097,7 +2104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2108,7 +2115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2119,7 +2126,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2130,7 +2137,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -2141,7 +2148,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2152,7 +2159,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>203</v>
       </c>
@@ -2163,7 +2170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2174,7 +2181,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2185,7 +2192,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2196,7 +2203,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2207,7 +2214,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2218,7 +2225,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>82</v>
       </c>
@@ -2229,7 +2236,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2240,7 +2247,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2251,7 +2258,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -2262,7 +2269,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2273,7 +2280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -2284,7 +2291,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>131</v>
       </c>
@@ -2292,7 +2299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -2303,7 +2310,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -2314,7 +2321,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -2326,7 +2333,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -2338,7 +2345,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -2355,7 +2362,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -2372,7 +2379,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>217</v>
       </c>
@@ -2384,7 +2391,7 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>207</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>148</v>
       </c>
@@ -2422,7 +2429,7 @@
       </c>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>160</v>
       </c>
@@ -2436,7 +2443,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -2448,7 +2455,7 @@
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -2460,7 +2467,7 @@
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>216</v>
       </c>
@@ -2504,7 +2511,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>186</v>
       </c>
@@ -2518,7 +2525,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>189</v>
       </c>
@@ -2549,13 +2556,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -2563,7 +2570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2574,7 +2581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -2590,7 +2597,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>121</v>
       </c>
@@ -2607,22 +2614,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X37"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
@@ -2693,8 +2700,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2729,8 +2736,8 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B4" t="s">
@@ -2745,7 +2752,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -2756,7 +2763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2772,7 +2779,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2788,7 +2795,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2799,7 +2806,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>201</v>
       </c>
@@ -2807,7 +2814,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2834,7 +2841,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -2845,7 +2852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2856,7 +2863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -2867,7 +2874,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -2878,7 +2885,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2889,7 +2896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>213</v>
       </c>
@@ -2900,7 +2907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -2908,7 +2915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -2919,7 +2926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>208</v>
       </c>
@@ -2952,7 +2959,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2988,7 +2995,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>162</v>
       </c>
@@ -2996,7 +3003,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>166</v>
       </c>
@@ -3004,12 +3011,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>199</v>
       </c>
@@ -3053,7 +3060,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>181</v>
       </c>
@@ -3073,7 +3080,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>190</v>
       </c>
@@ -3087,7 +3094,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>193</v>
       </c>
@@ -3101,7 +3108,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>195</v>
       </c>
@@ -3115,7 +3122,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>197</v>
       </c>
@@ -3129,12 +3136,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>214</v>
       </c>
@@ -3161,13 +3168,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -3178,7 +3185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>154</v>
       </c>
@@ -3189,7 +3196,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>157</v>
       </c>
@@ -3197,7 +3204,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>168</v>
       </c>
@@ -3205,7 +3212,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>170</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB84738D-9100-49E7-958E-D96A53F25B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C425121-0469-4C93-AAA0-BB63845485DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="10770" yWindow="4170" windowWidth="22990" windowHeight="13690" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="223">
   <si>
     <t>Medtronic</t>
   </si>
@@ -716,6 +716,12 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>YourBio</t>
+  </si>
+  <si>
+    <t>Flagship</t>
   </si>
 </sst>
 </file>
@@ -2612,13 +2618,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X37"/>
+  <dimension ref="A2:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3094,7 +3100,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>193</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>195</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>197</v>
       </c>
@@ -3136,14 +3142,22 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C425121-0469-4C93-AAA0-BB63845485DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEA37F-961B-4D8D-B366-71CCCA798F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="4170" windowWidth="22990" windowHeight="13690" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -1606,11 +1606,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2620,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEA37F-961B-4D8D-B366-71CCCA798F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44C8179-76F4-4977-867A-3B0847FB510C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -1587,9 +1587,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>151</v>
       </c>
@@ -1610,19 +1610,19 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>82</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>82</v>
       </c>
@@ -1890,8 +1890,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B11" t="s">
@@ -1901,7 +1901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>203</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>82</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>131</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>217</v>
       </c>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>207</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>148</v>
       </c>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>160</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
         <v>216</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>186</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>189</v>
       </c>
@@ -2555,20 +2555,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23D8427-6593-41F3-A83F-2502A7FAEA38}">
   <dimension ref="A2:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -2576,8 +2576,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B3" t="s">
@@ -2587,7 +2587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -2603,7 +2603,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>121</v>
       </c>
@@ -2627,15 +2627,15 @@
       <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
@@ -2758,7 +2758,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2785,7 +2785,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>201</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>213</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>208</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>162</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>166</v>
       </c>
@@ -3017,12 +3017,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>199</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>181</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>190</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>193</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>195</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>197</v>
       </c>
@@ -3142,17 +3142,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>221</v>
       </c>
@@ -3182,13 +3182,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>154</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>157</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>168</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>170</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44C8179-76F4-4977-867A-3B0847FB510C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE3FD7-1EC0-4279-B1D3-C2EF9480246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="223">
   <si>
     <t>Medtronic</t>
   </si>
@@ -1610,7 +1610,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1835,7 +1835,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1902,7 +1902,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B12" t="s">
@@ -1913,7 +1913,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B13" t="s">
@@ -1968,7 +1968,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B18" t="s">
@@ -2618,13 +2618,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X38"/>
+  <dimension ref="A2:X39"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2759,41 +2759,41 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2806,29 +2806,34 @@
         <v>82</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -2836,37 +2841,37 @@
         <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2874,10 +2879,10 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2885,10 +2890,10 @@
         <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2896,213 +2901,210 @@
         <v>82</v>
       </c>
       <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="20">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>168.51</v>
       </c>
-      <c r="E20" s="21">
-        <f>+D20*H20</f>
+      <c r="E21" s="21">
+        <f>+D21*H21</f>
         <v>22246.827704159998</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F21" s="21">
         <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>525.82600000000002</v>
       </c>
-      <c r="G20" s="21">
-        <f>+E20-F20</f>
+      <c r="G21" s="21">
+        <f>+E21-F21</f>
         <v>21721.001704159997</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H21" s="21">
         <f>+[10]Main!$L$3</f>
         <v>132.020816</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="16">
         <v>45632</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D22" s="20">
         <v>196.97</v>
       </c>
-      <c r="E21" s="21">
-        <f>+D21*H21</f>
+      <c r="E22" s="21">
+        <f>+D22*H22</f>
         <v>10169.70410022</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F22" s="21">
         <f>[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-1998</v>
       </c>
-      <c r="G21" s="21">
-        <f>+E21-F21</f>
+      <c r="G22" s="21">
+        <f>+E22-F22</f>
         <v>12167.70410022</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H22" s="21">
         <f>+[11]Main!$L$3</f>
         <v>51.630726000000003</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J22" s="16">
         <v>45566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>14.06</v>
       </c>
-      <c r="E26" s="21">
-        <f>+D26*H26</f>
+      <c r="E27" s="21">
+        <f>+D27*H27</f>
         <v>436.55102088000001</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F27" s="21">
         <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>958.84500000000003</v>
       </c>
-      <c r="G26" s="21">
-        <f>+E26-F26</f>
+      <c r="G27" s="21">
+        <f>+E27-F27</f>
         <v>-522.29397912000002</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H27" s="21">
         <f>+[12]Main!$K$3</f>
         <v>31.049147999999999</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J27" s="16">
         <v>45582</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31">
-        <v>2018</v>
-      </c>
-      <c r="E31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="D32">
+        <v>2018</v>
+      </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>184</v>
+      </c>
+      <c r="G32" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>182</v>
@@ -3111,32 +3113,32 @@
         <v>191</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
         <v>192</v>
@@ -3144,28 +3146,42 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>211</v>
+        <v>197</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>221</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
-    <hyperlink ref="B20" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE3FD7-1EC0-4279-B1D3-C2EF9480246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B129029A-4917-45BE-9726-82DF5777C297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -1610,7 +1610,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1865,7 +1865,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B9" t="s">
@@ -1924,7 +1924,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B14" t="s">
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B15" t="s">
@@ -1946,7 +1946,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B16" t="s">
@@ -1957,7 +1957,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B17" t="s">
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B20" t="s">
@@ -2001,7 +2001,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B21" t="s">
@@ -2012,7 +2012,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B22" t="s">
@@ -2559,7 +2559,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2588,7 +2588,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B4" t="s">
@@ -2624,7 +2624,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2775,7 +2775,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B6" t="s">

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B129029A-4917-45BE-9726-82DF5777C297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968DE9A5-4972-466B-BABD-39523B1D859C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="224">
   <si>
     <t>Medtronic</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>Flagship</t>
+  </si>
+  <si>
+    <t>PHIA NA</t>
   </si>
 </sst>
 </file>
@@ -1587,9 +1590,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>151</v>
       </c>
@@ -1606,23 +1609,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>82</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>82</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>82</v>
       </c>
@@ -1879,7 +1882,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>82</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>82</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>82</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>82</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>82</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>82</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>82</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>82</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>82</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>82</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>82</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>82</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>203</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>82</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>131</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -2339,7 +2342,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -2351,7 +2354,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>217</v>
       </c>
@@ -2397,7 +2400,7 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>207</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>148</v>
       </c>
@@ -2435,7 +2438,7 @@
       </c>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>160</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -2461,7 +2464,7 @@
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -2473,7 +2476,7 @@
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>216</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>186</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>189</v>
       </c>
@@ -2562,13 +2565,13 @@
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
@@ -2603,7 +2606,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>121</v>
       </c>
@@ -2618,24 +2621,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X39"/>
+  <dimension ref="A2:X40"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
@@ -2758,7 +2761,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
@@ -2774,7 +2777,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>82</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2801,8 +2804,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B8" t="s">
@@ -2817,308 +2820,310 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D19" s="20">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>168.51</v>
       </c>
-      <c r="E21" s="21">
-        <f>+D21*H21</f>
+      <c r="E22" s="21">
+        <f>+D22*H22</f>
         <v>22246.827704159998</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F22" s="21">
         <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>525.82600000000002</v>
       </c>
-      <c r="G21" s="21">
-        <f>+E21-F21</f>
+      <c r="G22" s="21">
+        <f>+E22-F22</f>
         <v>21721.001704159997</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H22" s="21">
         <f>+[10]Main!$L$3</f>
         <v>132.020816</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J22" s="16">
         <v>45632</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D23" s="20">
         <v>196.97</v>
       </c>
-      <c r="E22" s="21">
-        <f>+D22*H22</f>
+      <c r="E23" s="21">
+        <f>+D23*H23</f>
         <v>10169.70410022</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F23" s="21">
         <f>[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-1998</v>
       </c>
-      <c r="G22" s="21">
-        <f>+E22-F22</f>
+      <c r="G23" s="21">
+        <f>+E23-F23</f>
         <v>12167.70410022</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H23" s="21">
         <f>+[11]Main!$L$3</f>
         <v>51.630726000000003</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J23" s="16">
         <v>45566</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>14.06</v>
       </c>
-      <c r="E27" s="21">
-        <f>+D27*H27</f>
+      <c r="E28" s="21">
+        <f>+D28*H28</f>
         <v>436.55102088000001</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F28" s="21">
         <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>958.84500000000003</v>
       </c>
-      <c r="G27" s="21">
-        <f>+E27-F27</f>
+      <c r="G28" s="21">
+        <f>+E28-F28</f>
         <v>-522.29397912000002</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H28" s="21">
         <f>+[12]Main!$K$3</f>
         <v>31.049147999999999</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J28" s="16">
         <v>45582</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>181</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32">
-        <v>2018</v>
-      </c>
-      <c r="E32" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>190</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="D33">
+        <v>2018</v>
+      </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="G33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>182</v>
@@ -3127,61 +3132,75 @@
         <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>221</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
-    <hyperlink ref="B27" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
-    <hyperlink ref="B22" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
+    <hyperlink ref="B23" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
+    <hyperlink ref="B22" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3198,13 +3217,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -3215,7 +3234,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>154</v>
       </c>
@@ -3226,7 +3245,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>157</v>
       </c>
@@ -3234,7 +3253,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>168</v>
       </c>
@@ -3242,7 +3261,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>170</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968DE9A5-4972-466B-BABD-39523B1D859C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679BB049-7F34-4948-8805-8F276B2BF62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -1590,9 +1590,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>151</v>
       </c>
@@ -1607,25 +1607,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
-  <dimension ref="A2:K67"/>
+  <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>82</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>82</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>82</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>82</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>82</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>82</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>82</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>82</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>82</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>82</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>82</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>82</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>82</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>82</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>82</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2036,506 +2036,495 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D36" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="17" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>82</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="D52" s="1">
+        <v>134.15</v>
+      </c>
+      <c r="E52" s="4">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D53" s="1">
-        <v>134.15</v>
+        <v>24.85</v>
       </c>
       <c r="E53" s="4">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>82</v>
-      </c>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="1">
-        <v>24.85</v>
-      </c>
-      <c r="E54" s="4">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="D54" s="3">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D55" s="3">
-        <v>79.349999999999994</v>
-      </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="3">
         <v>43</v>
       </c>
-      <c r="E56" s="4">
-        <f>+D56*H56</f>
+      <c r="E55" s="4">
+        <f>+D55*H55</f>
         <v>1201.571962</v>
       </c>
-      <c r="G56" s="4">
-        <f>+E56-F56</f>
+      <c r="G55" s="4">
+        <f>+E55-F55</f>
         <v>1201.571962</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H55" s="4">
         <f>[7]Main!$L$3</f>
         <v>27.943534</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J55" s="16">
         <v>45568</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="D57" s="1">
+        <v>13.59</v>
+      </c>
+      <c r="E57" s="4">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="1">
-        <v>13.59</v>
-      </c>
-      <c r="E58" s="4">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D61" s="3">
         <v>1.19</v>
       </c>
-      <c r="E62" s="4">
-        <f>+D62*H62</f>
+      <c r="E61" s="4">
+        <f>+D61*H61</f>
         <v>20.14948579</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F61" s="4">
         <f>+[8]Main!$L$5-[8]Main!$L$6</f>
         <v>4.3380000000000001</v>
       </c>
-      <c r="G62" s="4">
-        <f>+E62-F62</f>
+      <c r="G61" s="4">
+        <f>+E61-F61</f>
         <v>15.811485789999999</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H61" s="4">
         <f>+[8]Main!$L$3</f>
         <v>16.932341000000001</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J61" s="16">
         <v>45656</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>186</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2547,7 +2536,7 @@
     <hyperlink ref="B4" r:id="rId4" display="Intuitive Surgical" xr:uid="{D10C7206-D056-4649-84E3-48ED7255DCF8}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{8C8CFEF4-EC99-4BD1-8542-5F27AB3FBF8E}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{33504D51-2E3F-4370-BCBD-318C828A1903}"/>
-    <hyperlink ref="B62" r:id="rId7" xr:uid="{E6990DD6-A42D-4691-8BC6-541575837CB2}"/>
+    <hyperlink ref="B61" r:id="rId7" xr:uid="{E6990DD6-A42D-4691-8BC6-541575837CB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
@@ -2565,13 +2554,13 @@
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -2579,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
@@ -2590,7 +2579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
@@ -2606,7 +2595,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>121</v>
       </c>
@@ -2621,24 +2610,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
-  <dimension ref="A2:X40"/>
+  <dimension ref="A2:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
@@ -2709,7 +2698,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>82</v>
       </c>
@@ -2745,7 +2734,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
@@ -2761,7 +2750,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
@@ -2777,7 +2766,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>82</v>
       </c>
@@ -2788,7 +2777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2804,7 +2793,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>82</v>
       </c>
@@ -2820,7 +2809,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>82</v>
       </c>
@@ -2836,308 +2825,311 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D20" s="20">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>168.51</v>
       </c>
-      <c r="E22" s="21">
-        <f>+D22*H22</f>
+      <c r="E23" s="21">
+        <f>+D23*H23</f>
         <v>22246.827704159998</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F23" s="21">
         <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>525.82600000000002</v>
       </c>
-      <c r="G22" s="21">
-        <f>+E22-F22</f>
+      <c r="G23" s="21">
+        <f>+E23-F23</f>
         <v>21721.001704159997</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H23" s="21">
         <f>+[10]Main!$L$3</f>
         <v>132.020816</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J23" s="16">
         <v>45632</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D24" s="20">
         <v>196.97</v>
       </c>
-      <c r="E23" s="21">
-        <f>+D23*H23</f>
+      <c r="E24" s="21">
+        <f>+D24*H24</f>
         <v>10169.70410022</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F24" s="21">
         <f>[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-1998</v>
       </c>
-      <c r="G23" s="21">
-        <f>+E23-F23</f>
+      <c r="G24" s="21">
+        <f>+E24-F24</f>
         <v>12167.70410022</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H24" s="21">
         <f>+[11]Main!$L$3</f>
         <v>51.630726000000003</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J24" s="16">
         <v>45566</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>14.06</v>
       </c>
-      <c r="E28" s="21">
-        <f>+D28*H28</f>
+      <c r="E29" s="21">
+        <f>+D29*H29</f>
         <v>436.55102088000001</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F29" s="21">
         <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>958.84500000000003</v>
       </c>
-      <c r="G28" s="21">
-        <f>+E28-F28</f>
+      <c r="G29" s="21">
+        <f>+E29-F29</f>
         <v>-522.29397912000002</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H29" s="21">
         <f>+[12]Main!$K$3</f>
         <v>31.049147999999999</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J29" s="16">
         <v>45582</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>181</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33">
-        <v>2018</v>
-      </c>
-      <c r="E33" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>190</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="D34">
+        <v>2018</v>
+      </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="G34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>182</v>
@@ -3146,61 +3138,75 @@
         <v>191</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>221</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
-    <hyperlink ref="B28" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
-    <hyperlink ref="B23" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
-    <hyperlink ref="B22" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
+    <hyperlink ref="B29" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
+    <hyperlink ref="B24" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
+    <hyperlink ref="B23" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3217,13 +3223,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -3234,7 +3240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>154</v>
       </c>
@@ -3245,7 +3251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>157</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>168</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>170</v>
       </c>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679BB049-7F34-4948-8805-8F276B2BF62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A4F09C-FAF0-4B18-9E0C-916EB18B6BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-29595" yWindow="5850" windowWidth="22485" windowHeight="14175" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -998,7 +998,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1609,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2612,11 +2612,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X41"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3017,11 +3017,11 @@
         <v>134</v>
       </c>
       <c r="D24" s="20">
-        <v>196.97</v>
+        <v>117</v>
       </c>
       <c r="E24" s="21">
         <f>+D24*H24</f>
-        <v>10169.70410022</v>
+        <v>6040.7949420000004</v>
       </c>
       <c r="F24" s="21">
         <f>[11]Main!$L$5-[11]Main!$L$6</f>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="G24" s="21">
         <f>+E24-F24</f>
-        <v>12167.70410022</v>
+        <v>8038.7949420000004</v>
       </c>
       <c r="H24" s="21">
         <f>+[11]Main!$L$3</f>
@@ -3039,7 +3039,7 @@
         <v>205</v>
       </c>
       <c r="J24" s="16">
-        <v>45566</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A4F09C-FAF0-4B18-9E0C-916EB18B6BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527B1AFE-EB6B-4A27-A2CA-B39552F1C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29595" yWindow="5850" windowWidth="22485" windowHeight="14175" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="-25515" yWindow="3000" windowWidth="22335" windowHeight="13230" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="224">
   <si>
     <t>Medtronic</t>
   </si>
@@ -998,7 +998,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1610,10 +1610,10 @@
   <dimension ref="A2:K66"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2070,14 +2070,14 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2085,10 +2085,10 @@
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2096,10 +2096,10 @@
         <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2107,10 +2107,10 @@
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2118,10 +2118,10 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2129,10 +2129,10 @@
         <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2616,7 +2616,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2843,33 +2843,58 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11">
+        <v>168.51</v>
+      </c>
+      <c r="E11" s="21">
+        <f>+D11*H11</f>
+        <v>22246.827704159998</v>
+      </c>
+      <c r="F11" s="21">
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <v>525.82600000000002</v>
+      </c>
+      <c r="G11" s="21">
+        <f>+E11-F11</f>
+        <v>21721.001704159997</v>
+      </c>
+      <c r="H11" s="21">
+        <f>+[10]Main!$L$3</f>
+        <v>132.020816</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" s="16">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2877,37 +2902,37 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
       <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2915,10 +2940,10 @@
         <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2926,10 +2951,10 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2937,73 +2962,51 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="20">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23">
-        <v>168.51</v>
-      </c>
-      <c r="E23" s="21">
-        <f>+D23*H23</f>
-        <v>22246.827704159998</v>
-      </c>
-      <c r="F23" s="21">
-        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
-        <v>525.82600000000002</v>
-      </c>
-      <c r="G23" s="21">
-        <f>+E23-F23</f>
-        <v>21721.001704159997</v>
-      </c>
-      <c r="H23" s="21">
-        <f>+[10]Main!$L$3</f>
-        <v>132.020816</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J23" s="16">
-        <v>45632</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -3206,7 +3209,7 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8D25F9A1-A797-41EE-A324-1E8E545D1031}"/>
     <hyperlink ref="B29" r:id="rId2" xr:uid="{375547C2-8DD1-4612-A521-505020286C6F}"/>
     <hyperlink ref="B24" r:id="rId3" xr:uid="{3120593B-0D87-46D2-B21F-DE912F72E638}"/>
-    <hyperlink ref="B23" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{C0A4BE37-391D-46D8-9278-AF9FC4C01B3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Medical Devices.xlsx
+++ b/Medical Devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527B1AFE-EB6B-4A27-A2CA-B39552F1C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C7E374-C5C4-498A-B1C8-7D34AFBEA31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25515" yWindow="3000" windowWidth="22335" windowHeight="13230" activeTab="3" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
+    <workbookView xWindow="40830" yWindow="2720" windowWidth="28980" windowHeight="14360" activeTab="1" xr2:uid="{74C39317-3ECA-46DC-8532-F0BC37DD93FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="225">
   <si>
     <t>Medtronic</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>PHIA NA</t>
+  </si>
+  <si>
+    <t>Q115</t>
   </si>
 </sst>
 </file>
@@ -910,27 +913,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>1743.5737770000001</v>
+            <v>1747</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>8096</v>
+            <v>7751</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>14754</v>
+            <v>13242</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1609,11 +1612,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79611-2BB3-4834-9AEA-2A0CCF755EDA}">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1668,29 +1671,29 @@
         <v>23</v>
       </c>
       <c r="D3" s="3">
-        <v>116</v>
+        <v>132.24</v>
       </c>
       <c r="E3" s="4">
         <f>+D3*H3</f>
-        <v>202254.55813200001</v>
+        <v>231023.28000000003</v>
       </c>
       <c r="F3" s="4">
         <f>+[1]Main!$L$5-[1]Main!$L$6</f>
-        <v>-6658</v>
+        <v>-5491</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G8" si="0">+E3-F3</f>
-        <v>208912.55813200001</v>
+        <v>236514.28000000003</v>
       </c>
       <c r="H3" s="4">
         <f>+[1]Main!$L$3</f>
-        <v>1743.5737770000001</v>
+        <v>1747</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J3" s="16">
-        <v>45580</v>
+        <v>45852</v>
       </c>
       <c r="K3">
         <v>1900</v>
@@ -2612,7 +2615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85197DD-BC14-4968-9014-85046DB3F965}">
   <dimension ref="A2:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
